--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.9356920089934135</v>
       </c>
-      <c r="BA2">
-        <v>0.9356920089934135</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>1.046072090605833</v>
       </c>
-      <c r="BA3">
-        <v>1.046072090605833</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>1.045874667975482</v>
-      </c>
       <c r="C4">
         <v>1.960591199849219</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>1.960591199849219</v>
       </c>
-      <c r="BA4">
-        <v>1.960591199849219</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>1.046012740397217</v>
-      </c>
       <c r="C5">
         <v>-0.2410745035013093</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>-0.2410745035013093</v>
       </c>
-      <c r="BA5">
-        <v>-0.2410745035013093</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>1.046151165323522</v>
-      </c>
-      <c r="C6">
-        <v>1.075949367088569</v>
-      </c>
       <c r="D6">
         <v>-2.989151587480549</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>-2.989151587480549</v>
       </c>
-      <c r="BA6">
-        <v>-2.989151587480549</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>1.445892867308032</v>
-      </c>
       <c r="D7">
         <v>-1.992436460080896</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>-1.992436460080896</v>
       </c>
-      <c r="BA7">
-        <v>-1.992436460080896</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>1.234498625217455</v>
-      </c>
-      <c r="D8">
-        <v>-1.139107420541492</v>
-      </c>
       <c r="E8">
         <v>-2.911016840458359</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>-2.911016840458359</v>
       </c>
-      <c r="BA8">
-        <v>-2.911016840458359</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>0.7926389889695713</v>
-      </c>
-      <c r="D9">
-        <v>-0.5689480281705812</v>
-      </c>
       <c r="E9">
         <v>0.5161858965418986</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>0.5161858965418986</v>
       </c>
-      <c r="BA9">
-        <v>0.5161858965418986</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>0.5774307083149921</v>
-      </c>
-      <c r="D10">
-        <v>-0.4999999999999716</v>
-      </c>
-      <c r="E10">
-        <v>0.5323987858790673</v>
-      </c>
       <c r="F10">
         <v>3.496635313038965</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>3.496635313038965</v>
       </c>
-      <c r="BA10">
-        <v>3.496635313038965</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>1.418811745716936</v>
-      </c>
-      <c r="D11">
-        <v>-0.6308914409513031</v>
-      </c>
-      <c r="E11">
-        <v>0.6663395013000581</v>
-      </c>
       <c r="F11">
         <v>2.022610195364777</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>2.022610195364777</v>
       </c>
-      <c r="BA11">
-        <v>2.022610195364777</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>1.015898676292866</v>
-      </c>
-      <c r="D12">
-        <v>-0.764172851709241</v>
-      </c>
-      <c r="E12">
-        <v>0.8292075001161407</v>
-      </c>
-      <c r="F12">
-        <v>1.499999999999986</v>
-      </c>
       <c r="G12">
         <v>4.001048740912381</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>4.001048740912381</v>
       </c>
-      <c r="BA12">
-        <v>4.001048740912381</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>0.8005559387163036</v>
-      </c>
-      <c r="D13">
-        <v>-0.8065182010255623</v>
-      </c>
-      <c r="E13">
-        <v>1.119233740021656</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
         <v>2.471556584906722</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>2.471556584906722</v>
       </c>
-      <c r="BA13">
-        <v>2.471556584906722</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>1.156943351103311</v>
-      </c>
-      <c r="D14">
-        <v>-0.7773978813386468</v>
-      </c>
-      <c r="E14">
-        <v>1.123485585928023</v>
-      </c>
-      <c r="F14">
-        <v>0.7999999999999829</v>
-      </c>
-      <c r="G14">
-        <v>1.200000000000003</v>
-      </c>
       <c r="H14">
         <v>1.809198400323567</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>1.809198400323567</v>
       </c>
-      <c r="BA14">
-        <v>1.809198400323567</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>1.054953413256503</v>
-      </c>
-      <c r="D15">
-        <v>-0.7352070023556114</v>
-      </c>
-      <c r="E15">
-        <v>0.4426737014973548</v>
-      </c>
-      <c r="F15">
-        <v>0.3950833198315422</v>
-      </c>
-      <c r="G15">
-        <v>1.499459244827349</v>
-      </c>
       <c r="H15">
         <v>0.9930361476913703</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0.9930361476913703</v>
       </c>
-      <c r="BA15">
-        <v>0.9930361476913703</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>0.9211404382181291</v>
-      </c>
-      <c r="D16">
-        <v>-0.7160850040592608</v>
-      </c>
-      <c r="E16">
-        <v>0.007959067913385132</v>
-      </c>
-      <c r="F16">
-        <v>0.1504450650226002</v>
-      </c>
-      <c r="G16">
-        <v>1.699999999999974</v>
-      </c>
-      <c r="H16">
-        <v>1.200000000000003</v>
-      </c>
       <c r="I16">
         <v>2.297598938510475</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>2.297598938510475</v>
       </c>
-      <c r="BA16">
-        <v>2.297598938510475</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>1.060546089180642</v>
-      </c>
-      <c r="D17">
-        <v>-0.7208797290007919</v>
-      </c>
-      <c r="E17">
-        <v>-0.1445422313424423</v>
-      </c>
-      <c r="F17">
-        <v>0.1206406681934007</v>
-      </c>
-      <c r="G17">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="H17">
-        <v>1.399999999999963</v>
-      </c>
       <c r="I17">
         <v>1.683866211357127</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>1.683866211357127</v>
       </c>
-      <c r="BA17">
-        <v>1.683866211357127</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>1.04806798934193</v>
-      </c>
-      <c r="D18">
-        <v>-0.7334676568350463</v>
-      </c>
-      <c r="E18">
-        <v>-0.1621979144816589</v>
-      </c>
-      <c r="F18">
-        <v>0.1981336366216411</v>
-      </c>
-      <c r="G18">
-        <v>1.899999999999963</v>
-      </c>
-      <c r="H18">
-        <v>1.600000000000051</v>
-      </c>
-      <c r="I18">
-        <v>1.62790453705955</v>
-      </c>
       <c r="J18">
         <v>-0.2000000000000028</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="BA18">
-        <v>-0.2000000000000028</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.978718339709773</v>
-      </c>
-      <c r="D19">
-        <v>-0.7409805843956825</v>
-      </c>
-      <c r="E19">
-        <v>-0.145546037154017</v>
-      </c>
-      <c r="F19">
-        <v>0.2732308482949422</v>
-      </c>
-      <c r="G19">
-        <v>1.536341289898503</v>
-      </c>
-      <c r="H19">
-        <v>1.345803758135929</v>
-      </c>
-      <c r="I19">
-        <v>1.63134579859603</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0</v>
       </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>1.028637232275388</v>
-      </c>
-      <c r="D20">
-        <v>-0.7409486806231871</v>
-      </c>
-      <c r="E20">
-        <v>-0.1317017406187145</v>
-      </c>
-      <c r="F20">
-        <v>0.3018213454346562</v>
-      </c>
-      <c r="G20">
-        <v>1.239607378040523</v>
-      </c>
-      <c r="H20">
-        <v>1.116042833673845</v>
-      </c>
-      <c r="I20">
-        <v>1.715918598939155</v>
-      </c>
-      <c r="J20">
-        <v>0.6999999999999886</v>
-      </c>
       <c r="K20">
         <v>0.4230141822949065</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>0.4230141822949065</v>
       </c>
-      <c r="BA20">
-        <v>0.4230141822949065</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.1259246726524526</v>
-      </c>
-      <c r="F21">
-        <v>0.2937676370863538</v>
-      </c>
-      <c r="G21">
-        <v>1.083768813574501</v>
-      </c>
-      <c r="H21">
-        <v>0.990079278789056</v>
-      </c>
-      <c r="I21">
-        <v>1.91634507258496</v>
-      </c>
-      <c r="J21">
-        <v>1.400000000000006</v>
-      </c>
       <c r="K21">
         <v>0.1000000000000085</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>0.1000000000000085</v>
       </c>
-      <c r="BA21">
-        <v>0.1000000000000085</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.1247757615888252</v>
-      </c>
-      <c r="F22">
-        <v>0.2753739807538071</v>
-      </c>
-      <c r="G22">
-        <v>1.022418649927432</v>
-      </c>
-      <c r="H22">
-        <v>0.9380035221477463</v>
-      </c>
-      <c r="I22">
-        <v>1.916768898709549</v>
-      </c>
-      <c r="J22">
-        <v>1.400000000000006</v>
-      </c>
       <c r="K22">
-        <v>0.6999999999999602</v>
+        <v>0.3113430493794863</v>
       </c>
       <c r="L22">
         <v>-0.8135079514120491</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>-0.8135079514120491</v>
       </c>
-      <c r="BA22">
-        <v>-0.8135079514120491</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.1251005775843619</v>
-      </c>
-      <c r="F23">
-        <v>0.2638326679418441</v>
-      </c>
-      <c r="G23">
-        <v>1.005828417314182</v>
-      </c>
-      <c r="H23">
-        <v>0.9222933609457974</v>
-      </c>
-      <c r="I23">
-        <v>1.628428392793181</v>
-      </c>
-      <c r="J23">
-        <v>1.153736587845746</v>
-      </c>
       <c r="K23">
-        <v>0.9003551961595377</v>
+        <v>0.523245334478144</v>
       </c>
       <c r="L23">
         <v>0.5011757240633443</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.5011757240633443</v>
       </c>
-      <c r="BA23">
-        <v>0.5011757240633443</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.1255178413306803</v>
-      </c>
-      <c r="F24">
-        <v>0.2621320390289821</v>
-      </c>
-      <c r="G24">
-        <v>1.005064556442976</v>
-      </c>
-      <c r="H24">
-        <v>0.9201980174824077</v>
-      </c>
-      <c r="I24">
-        <v>1.416340790941328</v>
-      </c>
-      <c r="J24">
-        <v>0.9729025047532363</v>
-      </c>
       <c r="K24">
-        <v>1.099884565599595</v>
+        <v>0.6391878269725451</v>
       </c>
       <c r="L24">
-        <v>0.9989897578154938</v>
+        <v>0.8044425666970868</v>
       </c>
       <c r="M24">
         <v>1.792421234023649</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>1.792421234023649</v>
       </c>
-      <c r="BA24">
-        <v>1.792421234023649</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>1.007697026242653</v>
-      </c>
-      <c r="H25">
-        <v>0.9215650072473875</v>
-      </c>
-      <c r="I25">
-        <v>1.300689555003073</v>
-      </c>
-      <c r="J25">
-        <v>0.8901258951112161</v>
-      </c>
       <c r="K25">
-        <v>1.200107523035143</v>
+        <v>0.6852652082914662</v>
       </c>
       <c r="L25">
-        <v>1.300430172270325</v>
+        <v>0.7904779176873173</v>
       </c>
       <c r="M25">
         <v>1.000583728414611</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>1.000583728414611</v>
       </c>
-      <c r="BA25">
-        <v>1.000583728414611</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>1.009852784710662</v>
-      </c>
-      <c r="H26">
-        <v>0.9229921656542568</v>
-      </c>
-      <c r="I26">
-        <v>1.245292941335358</v>
-      </c>
-      <c r="J26">
-        <v>0.8660664304944787</v>
-      </c>
       <c r="K26">
-        <v>1.199862210546272</v>
+        <v>0.6978550273933267</v>
       </c>
       <c r="L26">
-        <v>1.299745704579493</v>
+        <v>0.7271202775332229</v>
       </c>
       <c r="M26">
-        <v>0.9996338528585937</v>
+        <v>0.7031017500203178</v>
       </c>
       <c r="N26">
         <v>1.700400414966595</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>1.700400414966595</v>
       </c>
-      <c r="BA26">
-        <v>1.700400414966595</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>1.010986784761205</v>
-      </c>
-      <c r="H27">
-        <v>0.9238144027662964</v>
-      </c>
-      <c r="I27">
-        <v>1.220723741607938</v>
-      </c>
-      <c r="J27">
-        <v>0.8652098235425298</v>
-      </c>
       <c r="K27">
-        <v>1.022044495026899</v>
+        <v>0.6986983933042697</v>
       </c>
       <c r="L27">
-        <v>1.039205995120706</v>
+        <v>0.6841760933524552</v>
       </c>
       <c r="M27">
-        <v>1.300666563868958</v>
+        <v>0.6455357126663104</v>
       </c>
       <c r="N27">
         <v>1.466172678153498</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>1.466172678153498</v>
       </c>
-      <c r="BA27">
-        <v>1.466172678153498</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>1.011433894195456</v>
-      </c>
-      <c r="H28">
-        <v>0.9241679741636991</v>
-      </c>
-      <c r="I28">
-        <v>1.210400564739468</v>
-      </c>
-      <c r="J28">
-        <v>0.8694668797446854</v>
-      </c>
       <c r="K28">
-        <v>0.8928682304731839</v>
+        <v>0.6970410764192667</v>
       </c>
       <c r="L28">
-        <v>0.8503363982597184</v>
+        <v>0.6645490324498675</v>
       </c>
       <c r="M28">
-        <v>1.399998577930447</v>
+        <v>0.6628534437869378</v>
       </c>
       <c r="N28">
-        <v>1.486323995277729</v>
+        <v>1.11543684193813</v>
       </c>
       <c r="O28">
         <v>1.081988526104823</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>1.081988526104823</v>
       </c>
-      <c r="BA28">
-        <v>1.081988526104823</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>1.206243891313346</v>
-      </c>
-      <c r="J29">
-        <v>0.8727668480113733</v>
-      </c>
       <c r="K29">
-        <v>0.8313908241912829</v>
+        <v>0.6956840881156738</v>
       </c>
       <c r="L29">
-        <v>0.7616848491906063</v>
+        <v>0.6580394235466035</v>
       </c>
       <c r="M29">
-        <v>1.500000484182394</v>
+        <v>0.6866545672918392</v>
       </c>
       <c r="N29">
-        <v>1.583835598283457</v>
+        <v>0.9075459353115836</v>
       </c>
       <c r="O29">
         <v>1.353592454001856</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>1.353592454001856</v>
       </c>
-      <c r="BA29">
-        <v>1.353592454001856</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>1.204630334045281</v>
-      </c>
-      <c r="J30">
-        <v>0.8743255165081323</v>
-      </c>
       <c r="K30">
-        <v>0.8102487863613048</v>
+        <v>0.6949964182762775</v>
       </c>
       <c r="L30">
-        <v>0.7324301791393588</v>
+        <v>0.6568275662217196</v>
       </c>
       <c r="M30">
-        <v>1.600001147842804</v>
+        <v>0.7003420988671851</v>
       </c>
       <c r="N30">
-        <v>1.623628830547347</v>
+        <v>0.821977508375175</v>
       </c>
       <c r="O30">
-        <v>1.359391822879076</v>
+        <v>1.162543371196157</v>
       </c>
       <c r="P30">
         <v>0.4035607671893757</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.4035607671893757</v>
       </c>
-      <c r="BA30">
-        <v>0.4035607671893757</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>1.204024855687368</v>
-      </c>
-      <c r="J31">
-        <v>0.8747998968277768</v>
-      </c>
       <c r="K31">
-        <v>0.8060849833234862</v>
+        <v>0.6947411918746418</v>
       </c>
       <c r="L31">
-        <v>0.7276621372963064</v>
+        <v>0.6571043462861599</v>
       </c>
       <c r="M31">
-        <v>1.274582693782163</v>
+        <v>0.7054828279328892</v>
       </c>
       <c r="N31">
-        <v>1.301841585814253</v>
+        <v>0.7980458679203105</v>
       </c>
       <c r="O31">
-        <v>1.371463512519668</v>
+        <v>0.9799310030042429</v>
       </c>
       <c r="P31">
         <v>0.9949231225214561</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.9949231225214561</v>
       </c>
-      <c r="BA31">
-        <v>0.9949231225214561</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>1.203805172105454</v>
-      </c>
-      <c r="J32">
-        <v>0.8748317004467342</v>
-      </c>
-      <c r="K32">
-        <v>0.8069108741870472</v>
-      </c>
       <c r="L32">
-        <v>0.7296329451717084</v>
+        <v>0.6575158719992564</v>
       </c>
       <c r="M32">
-        <v>1.019975503118002</v>
+        <v>0.7064768384558566</v>
       </c>
       <c r="N32">
-        <v>1.064382209609622</v>
+        <v>0.7962261755605986</v>
       </c>
       <c r="O32">
-        <v>1.385631297577646</v>
+        <v>0.883323566346699</v>
       </c>
       <c r="P32">
-        <v>1.249999999999972</v>
+        <v>1.010728037475677</v>
       </c>
       <c r="Q32">
         <v>1.476517947415175</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>1.476517947415175</v>
       </c>
-      <c r="BA32">
-        <v>1.476517947415175</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.8082696321323464</v>
-      </c>
       <c r="L33">
-        <v>0.7319475098761223</v>
+        <v>0.657762072037291</v>
       </c>
       <c r="M33">
-        <v>0.8966015258742871</v>
+        <v>0.7061770155986744</v>
       </c>
       <c r="N33">
-        <v>0.9486913352680382</v>
+        <v>0.7991842178262607</v>
       </c>
       <c r="O33">
-        <v>1.489507944432205</v>
+        <v>0.846317830010939</v>
       </c>
       <c r="P33">
-        <v>1.350000000000051</v>
+        <v>0.9256096289164899</v>
       </c>
       <c r="Q33">
         <v>1.292287545731185</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>1.292287545731185</v>
       </c>
-      <c r="BA33">
-        <v>1.292287545731185</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.8091065835303981</v>
-      </c>
-      <c r="L34">
-        <v>0.7332607299633613</v>
-      </c>
       <c r="M34">
-        <v>0.8550259779909954</v>
+        <v>0.7057654649321667</v>
       </c>
       <c r="N34">
-        <v>0.9060067595793402</v>
+        <v>0.8016119121020964</v>
       </c>
       <c r="O34">
-        <v>1.488718727879728</v>
+        <v>0.8367530199319269</v>
       </c>
       <c r="P34">
-        <v>1.400000000000006</v>
+        <v>0.8638916601176496</v>
       </c>
       <c r="Q34">
-        <v>1.461453827648725</v>
+        <v>1.058504824030713</v>
       </c>
       <c r="R34">
         <v>0.4919486237229052</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>0.4919486237229052</v>
       </c>
-      <c r="BA34">
-        <v>0.4919486237229052</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.8094672557193838</v>
-      </c>
-      <c r="L35">
-        <v>0.7337837702519221</v>
-      </c>
       <c r="M35">
-        <v>0.8480741693357383</v>
+        <v>0.7055288652670889</v>
       </c>
       <c r="N35">
-        <v>0.895019128146876</v>
+        <v>0.8028133324971836</v>
       </c>
       <c r="O35">
-        <v>1.237522458671042</v>
+        <v>0.8363623885467992</v>
       </c>
       <c r="P35">
-        <v>1.165080295850102</v>
+        <v>0.8348357578927557</v>
       </c>
       <c r="Q35">
-        <v>1.369781572548106</v>
+        <v>0.9259195222253978</v>
       </c>
       <c r="R35">
         <v>1.268067508957756</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>1.268067508957756</v>
       </c>
-      <c r="BA35">
-        <v>1.268067508957756</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.8095768785253261</v>
-      </c>
-      <c r="L36">
-        <v>0.7339194568116236</v>
-      </c>
-      <c r="M36">
-        <v>0.8508466923912433</v>
-      </c>
       <c r="N36">
-        <v>0.89437870179178</v>
+        <v>0.8032366265845895</v>
       </c>
       <c r="O36">
-        <v>1.057696614438866</v>
+        <v>0.8377392716647071</v>
       </c>
       <c r="P36">
-        <v>0.9923518519701914</v>
+        <v>0.8246742458273021</v>
       </c>
       <c r="Q36">
-        <v>1.282921074986021</v>
+        <v>0.8724305425880055</v>
       </c>
       <c r="R36">
-        <v>1.357366269562704</v>
+        <v>1.205617809087753</v>
       </c>
       <c r="S36">
         <v>0.9496767498412169</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.9496767498412169</v>
       </c>
-      <c r="BA36">
-        <v>0.9496767498412169</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.8541618114441131</v>
-      </c>
       <c r="N37">
-        <v>0.8957825441354382</v>
+        <v>0.8033242685765457</v>
       </c>
       <c r="O37">
-        <v>0.9712827266471902</v>
+        <v>0.8387843748035182</v>
       </c>
       <c r="P37">
-        <v>0.9101770383945804</v>
+        <v>0.8223347508825998</v>
       </c>
       <c r="Q37">
-        <v>1.19534638469645</v>
+        <v>0.8572754421969531</v>
       </c>
       <c r="R37">
-        <v>1.259093942180712</v>
+        <v>1.036869356871098</v>
       </c>
       <c r="S37">
         <v>1.183775223599739</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>1.183775223599739</v>
       </c>
-      <c r="BA37">
-        <v>1.183775223599739</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.85604334120712</v>
-      </c>
-      <c r="N38">
-        <v>0.8968976464417078</v>
-      </c>
       <c r="O38">
-        <v>0.9397389462926916</v>
+        <v>0.8392882355940747</v>
       </c>
       <c r="P38">
-        <v>0.8811419176055182</v>
+        <v>0.8223603467610906</v>
       </c>
       <c r="Q38">
-        <v>1.139999999999986</v>
+        <v>0.8556544181780403</v>
       </c>
       <c r="R38">
-        <v>1.16734272858497</v>
+        <v>0.9307419919810387</v>
       </c>
       <c r="S38">
-        <v>1.183788656922189</v>
+        <v>1.074457781119453</v>
       </c>
       <c r="T38">
         <v>1.014999674053939</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>1.014999674053939</v>
       </c>
-      <c r="BA38">
-        <v>1.014999674053939</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.8567840596169906</v>
-      </c>
-      <c r="N39">
-        <v>0.897459114100292</v>
-      </c>
       <c r="O39">
-        <v>0.9317318269179402</v>
+        <v>0.8394652120473836</v>
       </c>
       <c r="P39">
-        <v>0.8743715120053795</v>
+        <v>0.8227583212780529</v>
       </c>
       <c r="Q39">
-        <v>1.029054430827021</v>
+        <v>0.8570645780096869</v>
       </c>
       <c r="R39">
-        <v>1.117352604141502</v>
+        <v>0.8849719271825038</v>
       </c>
       <c r="S39">
-        <v>1.099952939361089</v>
+        <v>0.9630456666572119</v>
       </c>
       <c r="T39">
         <v>1.191228972472018</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>1.191228972472018</v>
       </c>
-      <c r="BA39">
-        <v>1.191228972472018</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.8569673763874209</v>
-      </c>
-      <c r="N40">
-        <v>0.8976725989556223</v>
-      </c>
-      <c r="O40">
-        <v>0.9313216720601529</v>
-      </c>
       <c r="P40">
-        <v>0.8744218924123965</v>
+        <v>0.8230307177501361</v>
       </c>
       <c r="Q40">
-        <v>0.9602137090571327</v>
+        <v>0.8583229618559168</v>
       </c>
       <c r="R40">
-        <v>1.068441551176875</v>
+        <v>0.8706351313832277</v>
       </c>
       <c r="S40">
-        <v>1.099999999999966</v>
+        <v>0.9038759196923795</v>
       </c>
       <c r="T40">
-        <v>1.083176667368619</v>
+        <v>1.075179443337814</v>
       </c>
       <c r="U40">
         <v>1.836987253553829</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>1.836987253553829</v>
       </c>
-      <c r="BA40">
-        <v>1.836987253553829</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.9323798472256437</v>
-      </c>
       <c r="P41">
-        <v>0.8755742537836488</v>
+        <v>0.8231553342478787</v>
       </c>
       <c r="Q41">
-        <v>0.9299519362080644</v>
+        <v>0.8589663803826653</v>
       </c>
       <c r="R41">
-        <v>1.018983966766001</v>
+        <v>0.8681737238244073</v>
       </c>
       <c r="S41">
-        <v>1.099999999999994</v>
+        <v>0.8807909026643833</v>
       </c>
       <c r="T41">
-        <v>1.058404744744863</v>
+        <v>0.9685217704141561</v>
       </c>
       <c r="U41">
         <v>1.33483377666461</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>1.33483377666461</v>
       </c>
-      <c r="BA41">
-        <v>1.33483377666461</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.9332071879821204</v>
-      </c>
-      <c r="P42">
-        <v>0.8763727652313617</v>
-      </c>
       <c r="Q42">
-        <v>0.9199118656083721</v>
+        <v>0.8592051628084171</v>
       </c>
       <c r="R42">
-        <v>1.011331553407885</v>
+        <v>0.8688006842147196</v>
       </c>
       <c r="S42">
-        <v>1.099999999999952</v>
+        <v>0.8742386026043831</v>
       </c>
       <c r="T42">
-        <v>1.058408204105859</v>
+        <v>0.9135566967405633</v>
       </c>
       <c r="U42">
-        <v>1.083762275242407</v>
+        <v>1.062569896518084</v>
       </c>
       <c r="V42">
         <v>1.622456305393911</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>1.622456305393911</v>
       </c>
-      <c r="BA42">
-        <v>1.622456305393911</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.9336212274213906</v>
-      </c>
-      <c r="P43">
-        <v>0.876741707125541</v>
-      </c>
       <c r="Q43">
-        <v>0.9177874417061559</v>
+        <v>0.8592641660734932</v>
       </c>
       <c r="R43">
-        <v>0.9611335707674145</v>
+        <v>0.8696313141342509</v>
       </c>
       <c r="S43">
-        <v>1.006908787221408</v>
+        <v>0.8733620742988809</v>
       </c>
       <c r="T43">
-        <v>1.058422770026397</v>
+        <v>0.8924877396680022</v>
       </c>
       <c r="U43">
-        <v>1.067573485035254</v>
+        <v>0.9538384006112263</v>
       </c>
       <c r="V43">
-        <v>1.537389918320486</v>
+        <v>1.353772294796095</v>
       </c>
       <c r="W43">
         <v>1.303119407694879</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>1.303119407694879</v>
       </c>
-      <c r="BA43">
-        <v>1.303119407694879</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.9337781510655306</v>
-      </c>
-      <c r="P44">
-        <v>0.8768682702795187</v>
-      </c>
-      <c r="Q44">
-        <v>0.9179291585914937</v>
-      </c>
       <c r="R44">
-        <v>0.9276483696382999</v>
+        <v>0.8701019358385024</v>
       </c>
       <c r="S44">
-        <v>0.9430854049894636</v>
+        <v>0.8737862613213496</v>
       </c>
       <c r="T44">
-        <v>1.058421480670546</v>
+        <v>0.8865927164803268</v>
       </c>
       <c r="U44">
-        <v>1.050327450489561</v>
+        <v>0.9215113608048957</v>
       </c>
       <c r="V44">
-        <v>1.290079649540161</v>
+        <v>1.128013494668709</v>
       </c>
       <c r="W44">
-        <v>1.217379116243706</v>
+        <v>1.091975067468274</v>
       </c>
       <c r="X44">
         <v>0.3932797567441497</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>0.3932797567441497</v>
       </c>
-      <c r="BA44">
-        <v>0.3932797567441497</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.9183739482416878</v>
-      </c>
       <c r="R45">
-        <v>0.9126301463923681</v>
+        <v>0.8702915683124968</v>
       </c>
       <c r="S45">
-        <v>0.9138130686481665</v>
+        <v>0.8742135982623674</v>
       </c>
       <c r="T45">
-        <v>1.058424945524735</v>
+        <v>0.8858245957191209</v>
       </c>
       <c r="U45">
-        <v>1.050332267839124</v>
+        <v>0.9161986138392284</v>
       </c>
       <c r="V45">
-        <v>1.107807608059701</v>
+        <v>1.01323668944722</v>
       </c>
       <c r="W45">
-        <v>1.052179906974288</v>
+        <v>0.9947156624922233</v>
       </c>
       <c r="X45">
-        <v>1.05265349408306</v>
+        <v>0.4978184847299049</v>
       </c>
       <c r="Y45">
         <v>1.381065482681691</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>1.381065482681691</v>
       </c>
-      <c r="BA45">
-        <v>1.381065482681691</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.9186629694358509</v>
-      </c>
-      <c r="R46">
-        <v>0.9076750207814069</v>
-      </c>
       <c r="S46">
-        <v>0.9036748679302784</v>
+        <v>0.8744397887568686</v>
       </c>
       <c r="T46">
-        <v>1.058428411515507</v>
+        <v>0.8862123597356379</v>
       </c>
       <c r="U46">
-        <v>1.050337083250213</v>
+        <v>0.9175621876222529</v>
       </c>
       <c r="V46">
-        <v>1.107831271006646</v>
+        <v>0.967971134394234</v>
       </c>
       <c r="W46">
-        <v>1.052307872837119</v>
+        <v>0.9593171340660698</v>
       </c>
       <c r="X46">
-        <v>1.052782374001922</v>
+        <v>0.7090253437180479</v>
       </c>
       <c r="Y46">
-        <v>1.382771491547857</v>
+        <v>1.320854585313764</v>
       </c>
       <c r="Z46">
         <v>0.7</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0.7</v>
       </c>
-      <c r="BA46">
-        <v>0.7</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.9187934352865083</v>
-      </c>
-      <c r="R47">
-        <v>0.9066844547102212</v>
-      </c>
       <c r="S47">
-        <v>0.9012788923199202</v>
+        <v>0.8745278120656083</v>
       </c>
       <c r="T47">
-        <v>0.9894764556008045</v>
+        <v>0.886596509122449</v>
       </c>
       <c r="U47">
-        <v>0.9965562120120635</v>
+        <v>0.9193177321522372</v>
       </c>
       <c r="V47">
-        <v>1.10756961625917</v>
+        <v>0.953898035147113</v>
       </c>
       <c r="W47">
-        <v>1.05295683044919</v>
+        <v>0.9494298020736646</v>
       </c>
       <c r="X47">
-        <v>1.053958022313495</v>
+        <v>0.8373068415955576</v>
       </c>
       <c r="Y47">
-        <v>1.051702970940639</v>
+        <v>1.140836924088393</v>
       </c>
       <c r="Z47">
-        <v>1.2</v>
+        <v>0.7173027910299153</v>
       </c>
       <c r="AA47">
         <v>1.712723949918967</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>1.712723949918967</v>
       </c>
-      <c r="BA47">
-        <v>1.712723949918967</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.9188379832733805</v>
-      </c>
-      <c r="R48">
-        <v>0.9068033781695335</v>
-      </c>
-      <c r="S48">
-        <v>0.9012137157794442</v>
-      </c>
       <c r="T48">
-        <v>0.9422866852665953</v>
+        <v>0.8867991564763773</v>
       </c>
       <c r="U48">
-        <v>0.959737248464788</v>
+        <v>0.9203087909755788</v>
       </c>
       <c r="V48">
-        <v>1.107780377252027</v>
+        <v>0.9509291325794211</v>
       </c>
       <c r="W48">
-        <v>1.052789572872655</v>
+        <v>0.9478766338910326</v>
       </c>
       <c r="X48">
-        <v>1.053374636366456</v>
+        <v>0.8925308531757691</v>
       </c>
       <c r="Y48">
-        <v>1.052193530242846</v>
+        <v>1.02876869179379</v>
       </c>
       <c r="Z48">
-        <v>1.1</v>
+        <v>0.8182248899474754</v>
       </c>
       <c r="AA48">
-        <v>1.217970332073918</v>
+        <v>1.4877748169412</v>
       </c>
       <c r="AB48">
         <v>-0.9</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>-0.9</v>
       </c>
-      <c r="BA48">
-        <v>-0.9</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.90704641558572</v>
-      </c>
-      <c r="S49">
-        <v>0.9015418448722892</v>
-      </c>
       <c r="T49">
-        <v>0.9206093824869445</v>
+        <v>0.8868782407194888</v>
       </c>
       <c r="U49">
-        <v>0.9427884360049388</v>
+        <v>0.9207157704749769</v>
       </c>
       <c r="V49">
-        <v>1.107804063256367</v>
+        <v>0.9509668395994659</v>
       </c>
       <c r="W49">
-        <v>1.052918714610513</v>
+        <v>0.9482677963806316</v>
       </c>
       <c r="X49">
-        <v>1.053504899597684</v>
+        <v>0.910565426171662</v>
       </c>
       <c r="Y49">
-        <v>0.9523215224617587</v>
+        <v>0.9791579102072261</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0.8826012883336076</v>
       </c>
       <c r="AA49">
-        <v>0.9539546870911408</v>
+        <v>1.220008636571636</v>
       </c>
       <c r="AB49">
-        <v>1.1</v>
+        <v>-0.2832345668081987</v>
       </c>
       <c r="AC49">
         <v>0.914789154762218</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>0.914789154762218</v>
       </c>
-      <c r="BA49">
-        <v>0.914789154762218</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.9071952489371576</v>
-      </c>
-      <c r="S50">
-        <v>0.9017769518225347</v>
-      </c>
-      <c r="T50">
-        <v>0.9130409631388919</v>
-      </c>
       <c r="U50">
-        <v>0.9368383935633496</v>
+        <v>0.9208411044932996</v>
       </c>
       <c r="V50">
-        <v>1.107827729205653</v>
+        <v>0.9514283993737178</v>
       </c>
       <c r="W50">
-        <v>1.053048104480638</v>
+        <v>0.9487628221846406</v>
       </c>
       <c r="X50">
-        <v>1.053635411603267</v>
+        <v>0.9144071712966414</v>
       </c>
       <c r="Y50">
-        <v>0.9524498891484257</v>
+        <v>0.9617746126601284</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0.9118545411675203</v>
       </c>
       <c r="AA50">
-        <v>0.9540861856332867</v>
+        <v>1.072791796947836</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0.3213849506208712</v>
       </c>
       <c r="AC50">
-        <v>1.037652944873486</v>
+        <v>1.004530625633473</v>
       </c>
       <c r="AD50">
         <v>1.152379855430368</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>1.152379855430368</v>
       </c>
-      <c r="BA50">
-        <v>1.152379855430368</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.9072587682463</v>
-      </c>
-      <c r="S51">
-        <v>0.9018870843299909</v>
-      </c>
-      <c r="T51">
-        <v>0.911199528956254</v>
-      </c>
       <c r="U51">
-        <v>0.9353672778485791</v>
+        <v>0.9208639578935442</v>
       </c>
       <c r="V51">
-        <v>1.049112158825017</v>
+        <v>0.9517381575231456</v>
       </c>
       <c r="W51">
-        <v>1.012703298676203</v>
+        <v>0.9490433286051925</v>
       </c>
       <c r="X51">
-        <v>1.00413238453357</v>
+        <v>0.9142622760779333</v>
       </c>
       <c r="Y51">
-        <v>0.7527802951347269</v>
+        <v>0.9571462265716792</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.9227143556833074</v>
       </c>
       <c r="AA51">
-        <v>0.7548580787523491</v>
+        <v>1.009129622303519</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>0.6350579721210139</v>
       </c>
       <c r="AC51">
-        <v>0.7945284793702285</v>
+        <v>0.9656830201381674</v>
       </c>
       <c r="AD51">
-        <v>0.7929707194258953</v>
+        <v>1.052275868581436</v>
       </c>
       <c r="AE51">
         <v>-1.558195694240041</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>-1.558195694240041</v>
       </c>
-      <c r="BA51">
-        <v>-1.558195694240041</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.9072785559805031</v>
-      </c>
-      <c r="S52">
-        <v>0.9019260085559471</v>
-      </c>
-      <c r="T52">
-        <v>0.9111048012762959</v>
-      </c>
-      <c r="U52">
-        <v>0.9352737066031583</v>
-      </c>
       <c r="V52">
-        <v>1.00888691279354</v>
+        <v>0.9518820025590352</v>
       </c>
       <c r="W52">
-        <v>0.98514873870001</v>
+        <v>0.9491621472598879</v>
       </c>
       <c r="X52">
-        <v>0.9707144743833056</v>
+        <v>0.9135731066280247</v>
       </c>
       <c r="Y52">
-        <v>0.7527891525800641</v>
+        <v>0.9565041826472868</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>0.9260422843889422</v>
       </c>
       <c r="AA52">
-        <v>0.754627034525825</v>
+        <v>0.9853676249635084</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>0.7727970961316754</v>
       </c>
       <c r="AC52">
-        <v>0.7947449555943251</v>
+        <v>0.9395092877226383</v>
       </c>
       <c r="AD52">
-        <v>0.7939475122891366</v>
+        <v>0.9831434353334334</v>
       </c>
       <c r="AE52">
-        <v>-2.361846178489927</v>
+        <v>-0.5127417068863556</v>
       </c>
       <c r="AF52">
         <v>-24.4</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>-24.4</v>
       </c>
-      <c r="BA52">
-        <v>-24.4</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.9113235461571716</v>
-      </c>
-      <c r="U53">
-        <v>0.9354355183357239</v>
-      </c>
-      <c r="V53">
-        <v>0.9898889682117246</v>
-      </c>
       <c r="W53">
-        <v>0.9722033760649513</v>
+        <v>0.9492020810162726</v>
       </c>
       <c r="X53">
-        <v>0.9553563460017772</v>
+        <v>0.9131243817139345</v>
       </c>
       <c r="Y53">
-        <v>0.7529186780379291</v>
+        <v>0.9567286319828596</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>0.9268130554255948</v>
       </c>
       <c r="AA53">
-        <v>0.754760070574406</v>
+        <v>0.9775431901999095</v>
       </c>
       <c r="AB53">
-        <v>0.8</v>
+        <v>0.8290508399912746</v>
       </c>
       <c r="AC53">
-        <v>0.7951258868740041</v>
+        <v>0.9267520986271254</v>
       </c>
       <c r="AD53">
-        <v>0.7943259836361136</v>
+        <v>0.9496241181339751</v>
       </c>
       <c r="AE53">
-        <v>2.976434131487267</v>
+        <v>0.1948012924945466</v>
       </c>
       <c r="AF53">
-        <v>13.1</v>
+        <v>12.42550598425463</v>
       </c>
       <c r="AG53">
         <v>12.42550598425463</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>12.42550598425463</v>
       </c>
-      <c r="BA53">
-        <v>12.42550598425463</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.9114878381857008</v>
-      </c>
-      <c r="U54">
-        <v>0.93556066079079</v>
-      </c>
-      <c r="V54">
-        <v>0.982737453330748</v>
-      </c>
-      <c r="W54">
-        <v>0.9673708988442673</v>
-      </c>
       <c r="X54">
-        <v>0.9498471304601365</v>
+        <v>0.9129235864862985</v>
       </c>
       <c r="Y54">
-        <v>0.7530484531064161</v>
+        <v>0.9569697704657785</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>0.9268847759224236</v>
       </c>
       <c r="AA54">
-        <v>0.7548933581315964</v>
+        <v>0.9753023571469668</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>0.8511795464177517</v>
       </c>
       <c r="AC54">
-        <v>0.7955079887737071</v>
+        <v>0.9208897306716211</v>
       </c>
       <c r="AD54">
-        <v>0.7947056240599437</v>
+        <v>0.9344809802211659</v>
       </c>
       <c r="AE54">
-        <v>1.615011446782404</v>
+        <v>0.535262269651209</v>
       </c>
       <c r="AF54">
-        <v>10.4</v>
+        <v>-7.708162423065418</v>
       </c>
       <c r="AG54">
-        <v>5.637799230555117</v>
+        <v>2.813188392915293</v>
       </c>
       <c r="AH54">
         <v>2.813188392915293</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>2.813188392915293</v>
       </c>
-      <c r="BA54">
-        <v>2.813188392915293</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.9115665901667832</v>
-      </c>
-      <c r="U55">
-        <v>0.935621488894833</v>
-      </c>
-      <c r="V55">
-        <v>0.9806073112737037</v>
-      </c>
-      <c r="W55">
-        <v>0.9659532638859843</v>
-      </c>
-      <c r="X55">
-        <v>0.9483603309721372</v>
-      </c>
       <c r="Y55">
-        <v>0.9205592188728898</v>
+        <v>0.9570995543079936</v>
       </c>
       <c r="Z55">
-        <v>0.9445723225466472</v>
+        <v>0.9268308580591561</v>
       </c>
       <c r="AA55">
-        <v>0.9234491838455442</v>
+        <v>0.9747828207970431</v>
       </c>
       <c r="AB55">
-        <v>0.9351700589588736</v>
+        <v>0.8597025539900304</v>
       </c>
       <c r="AC55">
-        <v>0.7565966228197709</v>
+        <v>0.9182315963911698</v>
       </c>
       <c r="AD55">
-        <v>0.7574996084172625</v>
+        <v>0.9277628527527386</v>
       </c>
       <c r="AE55">
-        <v>0.8792789900156777</v>
+        <v>0.6892617387849187</v>
       </c>
       <c r="AF55">
-        <v>4.6</v>
+        <v>5.128446645233185</v>
       </c>
       <c r="AG55">
-        <v>3.481061364172362</v>
+        <v>-1.727224235928152</v>
       </c>
       <c r="AH55">
-        <v>0.06434265219293422</v>
+        <v>1.806909003397877</v>
       </c>
       <c r="AI55">
         <v>1.806909003397877</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>1.806909003397877</v>
       </c>
-      <c r="BA55">
-        <v>1.806909003397877</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.9115951859281306</v>
-      </c>
-      <c r="U56">
-        <v>0.9356439176675542</v>
-      </c>
-      <c r="V56">
-        <v>0.980190398137003</v>
-      </c>
-      <c r="W56">
-        <v>0.9656877304329705</v>
-      </c>
-      <c r="X56">
-        <v>0.9481572143305765</v>
-      </c>
-      <c r="Y56">
-        <v>1.018914580747346</v>
-      </c>
       <c r="Z56">
-        <v>1.027211223446289</v>
+        <v>0.9267858257047734</v>
       </c>
       <c r="AA56">
-        <v>1.018364900931185</v>
+        <v>0.974713534753322</v>
       </c>
       <c r="AB56">
-        <v>0.9993526870558433</v>
+        <v>0.8629446578331675</v>
       </c>
       <c r="AC56">
-        <v>0.7564229012773325</v>
+        <v>0.9170301652453228</v>
       </c>
       <c r="AD56">
-        <v>0.756299051043797</v>
+        <v>0.9247970866986747</v>
       </c>
       <c r="AE56">
-        <v>0.757406492870814</v>
+        <v>0.7579384708872958</v>
       </c>
       <c r="AF56">
-        <v>1.8</v>
+        <v>-2.442797089100234</v>
       </c>
       <c r="AG56">
-        <v>2.181562502275725</v>
+        <v>0.8621788136366895</v>
       </c>
       <c r="AH56">
-        <v>2.673650520541742</v>
+        <v>0.2760609055128207</v>
       </c>
       <c r="AI56">
-        <v>1.588601527331178</v>
+        <v>1.087285196410733</v>
       </c>
       <c r="AJ56">
         <v>1.087285196410733</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>1.087285196410733</v>
       </c>
-      <c r="BA56">
-        <v>1.087285196410733</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.9802152573630888</v>
-      </c>
-      <c r="W57">
-        <v>0.9657124419057102</v>
-      </c>
-      <c r="X57">
-        <v>0.9482360758653179</v>
-      </c>
-      <c r="Y57">
-        <v>1.068779026054561</v>
-      </c>
-      <c r="Z57">
-        <v>1.070144902057705</v>
-      </c>
       <c r="AA57">
-        <v>1.068033006694957</v>
+        <v>0.974730757192087</v>
       </c>
       <c r="AB57">
-        <v>1.03638625100994</v>
+        <v>0.8641686837776114</v>
       </c>
       <c r="AC57">
-        <v>0.7568914248753629</v>
+        <v>0.9164875536850684</v>
       </c>
       <c r="AD57">
-        <v>0.7567671606336148</v>
+        <v>0.9234896088101049</v>
       </c>
       <c r="AE57">
-        <v>0.7578782935852644</v>
+        <v>0.7884609095574675</v>
       </c>
       <c r="AF57">
-        <v>0.8</v>
+        <v>2.199027251687116</v>
       </c>
       <c r="AG57">
-        <v>1.683016752498574</v>
+        <v>0.9589309203307899</v>
       </c>
       <c r="AH57">
-        <v>2.962853997504993</v>
+        <v>0.7483136077760318</v>
       </c>
       <c r="AI57">
-        <v>2.453232171470802</v>
+        <v>0.6413763765452221</v>
       </c>
       <c r="AJ57">
-        <v>2.613079633443661</v>
+        <v>1.450779288666709</v>
       </c>
       <c r="AK57">
         <v>1.450779288666709</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>1.450779288666709</v>
       </c>
-      <c r="BA57">
-        <v>1.450779288666709</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.9802930493845279</v>
-      </c>
-      <c r="W58">
-        <v>0.9657678819977632</v>
-      </c>
-      <c r="X58">
-        <v>0.9483187775734356</v>
-      </c>
-      <c r="Y58">
-        <v>1.093426891879911</v>
-      </c>
-      <c r="Z58">
-        <v>1.092226278594736</v>
-      </c>
-      <c r="AA58">
-        <v>1.093873045330523</v>
-      </c>
       <c r="AB58">
-        <v>1.057084686937806</v>
+        <v>0.8646286677634315</v>
       </c>
       <c r="AC58">
-        <v>0.7573615118967183</v>
+        <v>0.9162425349307346</v>
       </c>
       <c r="AD58">
-        <v>0.7572368334217714</v>
+        <v>0.9229134156163801</v>
       </c>
       <c r="AE58">
-        <v>0.7583516594009438</v>
+        <v>0.8020149586954954</v>
       </c>
       <c r="AF58">
-        <v>0.8</v>
+        <v>-0.5920746422009387</v>
       </c>
       <c r="AG58">
-        <v>1.221384664580924</v>
+        <v>0.5293783597488858</v>
       </c>
       <c r="AH58">
-        <v>1.895920781612887</v>
+        <v>0.8067950359668897</v>
       </c>
       <c r="AI58">
-        <v>1.798761652061742</v>
+        <v>0.8514093084590402</v>
       </c>
       <c r="AJ58">
-        <v>1.88650163443657</v>
+        <v>0.689001201437321</v>
       </c>
       <c r="AK58">
-        <v>2.046307381810891</v>
+        <v>0.368631518524424</v>
       </c>
       <c r="AL58">
         <v>0.368631518524424</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>0.368631518524424</v>
       </c>
-      <c r="BA58">
-        <v>0.368631518524424</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.9803427159869568</v>
-      </c>
-      <c r="W59">
-        <v>0.9658021306018022</v>
-      </c>
-      <c r="X59">
-        <v>0.9483631235379841</v>
-      </c>
-      <c r="Y59">
-        <v>1.105551507069816</v>
-      </c>
-      <c r="Z59">
-        <v>1.103570191279178</v>
-      </c>
-      <c r="AA59">
-        <v>1.107309975657136</v>
-      </c>
-      <c r="AB59">
-        <v>1.068709591327539</v>
-      </c>
       <c r="AC59">
-        <v>0.8670693166673935</v>
+        <v>0.9161319004819457</v>
       </c>
       <c r="AD59">
-        <v>0.8701200829844074</v>
+        <v>0.9226595192297904</v>
       </c>
       <c r="AE59">
-        <v>0.9283332750229735</v>
+        <v>0.8080326684390626</v>
       </c>
       <c r="AF59">
-        <v>1.166973914954893</v>
+        <v>1.102558781870931</v>
       </c>
       <c r="AG59">
-        <v>0.8690066415474718</v>
+        <v>0.6163901539883889</v>
       </c>
       <c r="AH59">
-        <v>1.246134092754559</v>
+        <v>0.7406515964756838</v>
       </c>
       <c r="AI59">
-        <v>1.239802792266346</v>
+        <v>0.8574431918329292</v>
       </c>
       <c r="AJ59">
-        <v>1.263112978269902</v>
+        <v>0.8391884052332912</v>
       </c>
       <c r="AK59">
-        <v>2.06222331282595</v>
+        <v>0.8796378323308834</v>
       </c>
       <c r="AL59">
-        <v>0.825619154467347</v>
+        <v>-2.021680416268424</v>
       </c>
       <c r="AM59">
         <v>-2.021680416268424</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>-2.021680416268424</v>
       </c>
-      <c r="BA59">
-        <v>-2.021680416268424</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.9803654012367667</v>
-      </c>
-      <c r="W60">
-        <v>0.9658174518177287</v>
-      </c>
-      <c r="X60">
-        <v>0.9483810338114148</v>
-      </c>
-      <c r="Y60">
-        <v>1.111510168780544</v>
-      </c>
-      <c r="Z60">
-        <v>1.1093971805764</v>
-      </c>
-      <c r="AA60">
-        <v>1.114296958281124</v>
-      </c>
-      <c r="AB60">
-        <v>1.075233619559144</v>
-      </c>
-      <c r="AC60">
-        <v>0.9014257060039383</v>
-      </c>
       <c r="AD60">
-        <v>0.9056286263167835</v>
+        <v>0.9225476444135755</v>
       </c>
       <c r="AE60">
-        <v>0.9781984207283311</v>
+        <v>0.8107042722360592</v>
       </c>
       <c r="AF60">
-        <v>1.129061789182734</v>
+        <v>0.07863823515540593</v>
       </c>
       <c r="AG60">
-        <v>0.8112840917198412</v>
+        <v>0.6631269426637452</v>
       </c>
       <c r="AH60">
-        <v>0.9898311076226918</v>
+        <v>0.7497505891383651</v>
       </c>
       <c r="AI60">
-        <v>0.9878875275857837</v>
+        <v>0.8278146718539424</v>
       </c>
       <c r="AJ60">
-        <v>0.9898774586767303</v>
+        <v>0.906361399986592</v>
       </c>
       <c r="AK60">
-        <v>1.580695749878686</v>
+        <v>0.8873772631917515</v>
       </c>
       <c r="AL60">
-        <v>3.597445468425548</v>
+        <v>1.561541032636668</v>
       </c>
       <c r="AM60">
-        <v>1.519179420520402</v>
+        <v>1.118165634023697</v>
       </c>
       <c r="AN60">
         <v>1.118165634023697</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>1.118165634023697</v>
       </c>
-      <c r="BA60">
-        <v>1.118165634023697</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>1.114438026648368</v>
-      </c>
-      <c r="Z61">
-        <v>1.112390267417728</v>
-      </c>
-      <c r="AA61">
-        <v>1.117930062238661</v>
-      </c>
-      <c r="AB61">
-        <v>1.078895400657383</v>
-      </c>
-      <c r="AC61">
-        <v>0.9388265559825825</v>
-      </c>
-      <c r="AD61">
-        <v>0.9434093765003844</v>
-      </c>
       <c r="AE61">
-        <v>0.9939541045365283</v>
+        <v>0.8118903349657122</v>
       </c>
       <c r="AF61">
-        <v>1.047235169402707</v>
+        <v>0.6988097115190788</v>
       </c>
       <c r="AG61">
-        <v>0.7550732564476732</v>
+        <v>0.6383463114582998</v>
       </c>
       <c r="AH61">
-        <v>0.811761109884543</v>
+        <v>0.7549410500569501</v>
       </c>
       <c r="AI61">
-        <v>0.8666961335262755</v>
+        <v>0.8345688182230138</v>
       </c>
       <c r="AJ61">
-        <v>0.8691694120189766</v>
+        <v>0.8675603418270055</v>
       </c>
       <c r="AK61">
-        <v>0.8946668611231843</v>
+        <v>0.8186905598547543</v>
       </c>
       <c r="AL61">
-        <v>2.758694470720428</v>
+        <v>0.925466916342899</v>
       </c>
       <c r="AM61">
-        <v>2.159388129438057</v>
+        <v>0.9905636807292224</v>
       </c>
       <c r="AN61">
-        <v>2.001102481077055</v>
+        <v>0.1289585187160185</v>
       </c>
       <c r="AO61">
         <v>0.1289585187160185</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>0.1289585187160185</v>
       </c>
-      <c r="BA61">
-        <v>0.1289585187160185</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>1.115876612358568</v>
-      </c>
-      <c r="Z62">
-        <v>1.113927691607479</v>
-      </c>
-      <c r="AA62">
-        <v>1.119819209736878</v>
-      </c>
-      <c r="AB62">
-        <v>1.080950634339235</v>
-      </c>
-      <c r="AC62">
-        <v>0.9588545361853957</v>
-      </c>
-      <c r="AD62">
-        <v>0.9636383617745565</v>
-      </c>
-      <c r="AE62">
-        <v>0.998906850823029</v>
-      </c>
       <c r="AF62">
-        <v>1.064546843689514</v>
+        <v>0.3236386309322479</v>
       </c>
       <c r="AG62">
-        <v>0.7555372519599075</v>
+        <v>0.6369046575415015</v>
       </c>
       <c r="AH62">
-        <v>0.8121144935678188</v>
+        <v>0.7527092321532662</v>
       </c>
       <c r="AI62">
-        <v>0.810841343452779</v>
+        <v>0.8368075475372621</v>
       </c>
       <c r="AJ62">
-        <v>0.8123706522064253</v>
+        <v>0.8683861463612909</v>
       </c>
       <c r="AK62">
-        <v>0.8470232082019749</v>
+        <v>0.8356167888925929</v>
       </c>
       <c r="AL62">
-        <v>1.999999999999986</v>
+        <v>0.6189709250438739</v>
       </c>
       <c r="AM62">
-        <v>1.250741812913873</v>
+        <v>0.5630155908237522</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>0.727026328831845</v>
       </c>
       <c r="AO62">
-        <v>1.103467709678512</v>
+        <v>-0.4259770459179748</v>
       </c>
       <c r="AP62">
         <v>-0.4259770459179748</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>-0.4259770459179748</v>
       </c>
-      <c r="BA62">
-        <v>-0.4259770459179748</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>1.116583448046039</v>
-      </c>
-      <c r="Z63">
-        <v>1.114717402308069</v>
-      </c>
-      <c r="AA63">
-        <v>1.120801531803757</v>
-      </c>
-      <c r="AB63">
-        <v>1.082104170537163</v>
-      </c>
-      <c r="AC63">
-        <v>0.9742004014580885</v>
-      </c>
-      <c r="AD63">
-        <v>0.9788998576340511</v>
-      </c>
-      <c r="AE63">
-        <v>1.00046426596435</v>
-      </c>
       <c r="AF63">
-        <v>1.081877133288775</v>
+        <v>0.5507354463441241</v>
       </c>
       <c r="AG63">
-        <v>0.8492617602323478</v>
+        <v>0.6411381895450585</v>
       </c>
       <c r="AH63">
-        <v>0.7316500875065877</v>
+        <v>0.7526595196224917</v>
       </c>
       <c r="AI63">
-        <v>0.7269263725493073</v>
+        <v>0.8353329684069677</v>
       </c>
       <c r="AJ63">
-        <v>0.7191145326260497</v>
+        <v>0.8736096103677766</v>
       </c>
       <c r="AK63">
-        <v>0.8460994700169095</v>
+        <v>0.8401577504315215</v>
       </c>
       <c r="AL63">
-        <v>1.290118597401687</v>
+        <v>0.7849761101934392</v>
       </c>
       <c r="AM63">
-        <v>1.015183912492461</v>
+        <v>0.6990195305871835</v>
       </c>
       <c r="AN63">
-        <v>1.42259993923426</v>
+        <v>0.7055410306874147</v>
       </c>
       <c r="AO63">
-        <v>0.2741565900296763</v>
+        <v>0.9811099429125253</v>
       </c>
       <c r="AP63">
-        <v>0.6052917263434097</v>
+        <v>-0.6379881427730965</v>
       </c>
       <c r="AQ63">
         <v>-0.6379881427730965</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>-0.6379881427730965</v>
       </c>
-      <c r="BA63">
-        <v>-0.6379881427730965</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>1.11693074470452</v>
-      </c>
-      <c r="Z64">
-        <v>1.115123043758165</v>
-      </c>
-      <c r="AA64">
-        <v>1.121312321269464</v>
-      </c>
-      <c r="AB64">
-        <v>1.08275161282604</v>
-      </c>
-      <c r="AC64">
-        <v>0.9838603427379511</v>
-      </c>
-      <c r="AD64">
-        <v>0.9884605699061554</v>
-      </c>
-      <c r="AE64">
-        <v>1.000953991406513</v>
-      </c>
-      <c r="AF64">
-        <v>1.0760418720449</v>
-      </c>
       <c r="AG64">
-        <v>0.8285402348035411</v>
+        <v>0.6403572597000481</v>
       </c>
       <c r="AH64">
-        <v>0.7552638747039341</v>
+        <v>0.7529187037768006</v>
       </c>
       <c r="AI64">
-        <v>0.7595122466966109</v>
+        <v>0.8354098795734639</v>
       </c>
       <c r="AJ64">
-        <v>0.754810983466899</v>
+        <v>0.8721144269350809</v>
       </c>
       <c r="AK64">
-        <v>0.8472120198269977</v>
+        <v>0.8367637945394918</v>
       </c>
       <c r="AL64">
-        <v>0.8457693219322948</v>
+        <v>0.7814983833001606</v>
       </c>
       <c r="AM64">
-        <v>0.8514252841831365</v>
+        <v>0.7247175615399118</v>
       </c>
       <c r="AN64">
-        <v>1.04995654318823</v>
+        <v>0.6207454884012525</v>
       </c>
       <c r="AO64">
-        <v>0.3900306755021603</v>
+        <v>0.6572134866103724</v>
       </c>
       <c r="AP64">
-        <v>1.09000539282718</v>
+        <v>1.080031146541529</v>
       </c>
       <c r="AQ64">
-        <v>0.9813417064542591</v>
+        <v>-0.04993664583679447</v>
       </c>
       <c r="AR64">
         <v>-0.04993664583679447</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>-0.04993664583679447</v>
       </c>
-      <c r="BA64">
-        <v>-0.04993664583679447</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.9906070453300689</v>
-      </c>
-      <c r="AD65">
-        <v>0.9950610686659803</v>
-      </c>
-      <c r="AE65">
-        <v>1.001107984631861</v>
-      </c>
-      <c r="AF65">
-        <v>1.072595497592709</v>
-      </c>
-      <c r="AG65">
-        <v>0.816423149425215</v>
-      </c>
       <c r="AH65">
-        <v>0.7627675563431954</v>
+        <v>0.7528631514178937</v>
       </c>
       <c r="AI65">
-        <v>0.7630511186163362</v>
+        <v>0.8355874545653572</v>
       </c>
       <c r="AJ65">
-        <v>0.7590337167662681</v>
+        <v>0.8717767143716836</v>
       </c>
       <c r="AK65">
-        <v>0.8476002886976204</v>
+        <v>0.8370576335823062</v>
       </c>
       <c r="AL65">
-        <v>0.8461532041536657</v>
+        <v>0.7603832166007548</v>
       </c>
       <c r="AM65">
-        <v>0.8518261268455376</v>
+        <v>0.6976381190295624</v>
       </c>
       <c r="AN65">
-        <v>0.85011087922922</v>
+        <v>0.6483938546675101</v>
       </c>
       <c r="AO65">
-        <v>1.77047133227353</v>
+        <v>0.5225695931179312</v>
       </c>
       <c r="AP65">
-        <v>1.170028044289253</v>
+        <v>0.6088382122502448</v>
       </c>
       <c r="AQ65">
-        <v>1.411430480870337</v>
+        <v>0.8771835470702627</v>
       </c>
       <c r="AR65">
-        <v>0.7228890830222241</v>
+        <v>0.3662234592800075</v>
       </c>
       <c r="AS65">
         <v>0.3662234592800075</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>0.3662234592800075</v>
       </c>
-      <c r="BA65">
-        <v>0.3662234592800075</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.9950618267758568</v>
-      </c>
-      <c r="AD66">
-        <v>0.9993876418638519</v>
-      </c>
-      <c r="AE66">
-        <v>1.001156407500965</v>
-      </c>
-      <c r="AF66">
-        <v>1.074314949758987</v>
-      </c>
-      <c r="AG66">
-        <v>0.8227792450757156</v>
-      </c>
-      <c r="AH66">
-        <v>0.7563182677258533</v>
-      </c>
       <c r="AI66">
-        <v>0.7570416011011365</v>
+        <v>0.8355318524064789</v>
       </c>
       <c r="AJ66">
-        <v>0.7522651917436551</v>
+        <v>0.8720755822653645</v>
       </c>
       <c r="AK66">
-        <v>0.8479897310629241</v>
+        <v>0.8374236789330096</v>
       </c>
       <c r="AL66">
-        <v>0.8465382576453067</v>
+        <v>0.7664633528008886</v>
       </c>
       <c r="AM66">
-        <v>0.8522281473628937</v>
+        <v>0.7012760515087129</v>
       </c>
       <c r="AN66">
-        <v>0.8505078371614019</v>
+        <v>0.65334283414862</v>
       </c>
       <c r="AO66">
-        <v>1.271038976863451</v>
+        <v>0.615210697217653</v>
       </c>
       <c r="AP66">
-        <v>1.009978799001772</v>
+        <v>0.4643406245723962</v>
       </c>
       <c r="AQ66">
-        <v>1.250970079311699</v>
+        <v>0.5061352074311728</v>
       </c>
       <c r="AR66">
-        <v>1.229421467958474</v>
+        <v>0.6103524975601586</v>
       </c>
       <c r="AS66">
-        <v>0.5789697687887099</v>
+        <v>-1.023919595764212</v>
       </c>
       <c r="AT66">
         <v>-1.023919595764212</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>-1.023919595764212</v>
       </c>
-      <c r="BA66">
-        <v>-1.023919595764212</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.9980928435548748</v>
-      </c>
-      <c r="AD67">
-        <v>1.002302404966204</v>
-      </c>
-      <c r="AE67">
-        <v>1.001171633977736</v>
-      </c>
-      <c r="AF67">
-        <v>1.074942557102426</v>
-      </c>
-      <c r="AG67">
-        <v>0.8235360546851125</v>
-      </c>
-      <c r="AH67">
-        <v>0.7568682828557616</v>
-      </c>
-      <c r="AI67">
-        <v>0.7582192615282632</v>
-      </c>
       <c r="AJ67">
-        <v>0.7535580382817315</v>
+        <v>0.8720440210667565</v>
       </c>
       <c r="AK67">
-        <v>0.6613322493223787</v>
+        <v>0.837289760666051</v>
       </c>
       <c r="AL67">
-        <v>0.7412544251811645</v>
+        <v>0.7676489925002273</v>
       </c>
       <c r="AM67">
-        <v>0.5348076401889711</v>
+        <v>0.7042678118050574</v>
       </c>
       <c r="AN67">
-        <v>0.5619176939008584</v>
+        <v>0.6477142834620531</v>
       </c>
       <c r="AO67">
-        <v>1.096968169662631</v>
+        <v>0.6099284457859471</v>
       </c>
       <c r="AP67">
-        <v>0.7712098268207512</v>
+        <v>0.5846163066226114</v>
       </c>
       <c r="AQ67">
-        <v>1.008537156254192</v>
+        <v>0.4609428428149615</v>
       </c>
       <c r="AR67">
-        <v>1.570315680219196</v>
+        <v>0.4676482785937403</v>
       </c>
       <c r="AS67">
-        <v>0.7461065351979386</v>
+        <v>0.9207706299272168</v>
       </c>
       <c r="AT67">
-        <v>1.163667258715932</v>
+        <v>-0.2547854660834332</v>
       </c>
       <c r="AU67">
         <v>-0.2547854660834332</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>-0.2547854660834332</v>
       </c>
-      <c r="BA67">
-        <v>-0.2547854660834332</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>1.000122150297341</v>
-      </c>
-      <c r="AD68">
-        <v>1.004237696299762</v>
-      </c>
-      <c r="AE68">
-        <v>1.001176421913665</v>
-      </c>
-      <c r="AF68">
-        <v>1.074475969504671</v>
-      </c>
-      <c r="AG68">
-        <v>0.8222382047244611</v>
-      </c>
-      <c r="AH68">
-        <v>0.7578647938583236</v>
-      </c>
-      <c r="AI68">
-        <v>0.7588035997879368</v>
-      </c>
-      <c r="AJ68">
-        <v>0.7542384076703368</v>
-      </c>
       <c r="AK68">
-        <v>0.7158744078049591</v>
+        <v>0.8372769760947752</v>
       </c>
       <c r="AL68">
-        <v>0.7706331738532466</v>
+        <v>0.7665262527493618</v>
       </c>
       <c r="AM68">
-        <v>0.6297172389455703</v>
+        <v>0.7029117566383527</v>
       </c>
       <c r="AN68">
-        <v>0.6467429359752458</v>
+        <v>0.6485797943136842</v>
       </c>
       <c r="AO68">
-        <v>0.6469136025130808</v>
+        <v>0.5963361564528142</v>
       </c>
       <c r="AP68">
-        <v>0.6516585191350828</v>
+        <v>0.5730102777199492</v>
       </c>
       <c r="AQ68">
-        <v>0.8495220873143694</v>
+        <v>0.5360779761221787</v>
       </c>
       <c r="AR68">
-        <v>1.310709105758562</v>
+        <v>0.4692635891443495</v>
       </c>
       <c r="AS68">
-        <v>1.000000000000043</v>
+        <v>0.573022171607832</v>
       </c>
       <c r="AT68">
-        <v>1.238079244374205</v>
+        <v>0.9045958839057886</v>
       </c>
       <c r="AU68">
-        <v>0.4778196230286795</v>
+        <v>1.565950786385088</v>
       </c>
       <c r="AV68">
         <v>1.565950786385088</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>1.565950786385088</v>
       </c>
-      <c r="BA68">
-        <v>1.565950786385088</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.8223893131651387</v>
-      </c>
-      <c r="AH69">
-        <v>0.7574727747292452</v>
-      </c>
-      <c r="AI69">
-        <v>0.7584557532137765</v>
-      </c>
-      <c r="AJ69">
-        <v>0.7538413422532517</v>
-      </c>
-      <c r="AK69">
-        <v>0.729877812349059</v>
-      </c>
       <c r="AL69">
-        <v>0.7784442782277865</v>
+        <v>0.7666675777402392</v>
       </c>
       <c r="AM69">
-        <v>0.6563020582960114</v>
+        <v>0.702842788106263</v>
       </c>
       <c r="AN69">
-        <v>0.6704866495640047</v>
+        <v>0.6491871115753876</v>
       </c>
       <c r="AO69">
-        <v>0.6473017371662735</v>
+        <v>0.6012052995102578</v>
       </c>
       <c r="AP69">
-        <v>0.6520608453922847</v>
+        <v>0.5565949401957455</v>
       </c>
       <c r="AQ69">
-        <v>0.6492410637064978</v>
+        <v>0.5214782921472365</v>
       </c>
       <c r="AR69">
-        <v>1.069614283561933</v>
+        <v>0.492732280101025</v>
       </c>
       <c r="AS69">
-        <v>0.9506783003253787</v>
+        <v>0.3527647738827146</v>
       </c>
       <c r="AT69">
-        <v>1.030887569010019</v>
+        <v>0.4347276627746582</v>
       </c>
       <c r="AU69">
-        <v>1.031485424476813</v>
+        <v>0.2584791310620995</v>
       </c>
       <c r="AV69">
-        <v>1.366216841142815</v>
+        <v>-0.2475555093771362</v>
       </c>
       <c r="AW69">
         <v>-0.2475555093771362</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>-0.2475555093771362</v>
       </c>
-      <c r="BA69">
-        <v>-0.2475555093771362</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.8225870160518735</v>
-      </c>
-      <c r="AH70">
-        <v>0.757409145916036</v>
-      </c>
-      <c r="AI70">
-        <v>0.7584657296582408</v>
-      </c>
-      <c r="AJ70">
-        <v>0.7538498914393515</v>
-      </c>
-      <c r="AK70">
-        <v>0.7170270707795071</v>
-      </c>
-      <c r="AL70">
-        <v>0.7717885123556721</v>
-      </c>
       <c r="AM70">
-        <v>0.6319069647440992</v>
+        <v>0.7030614545301582</v>
       </c>
       <c r="AN70">
-        <v>0.6491889284802284</v>
+        <v>0.64888084311744</v>
       </c>
       <c r="AO70">
-        <v>0.6476910495457417</v>
+        <v>0.6019930986562361</v>
       </c>
       <c r="AP70">
-        <v>0.6524643543338584</v>
+        <v>0.5633451081519175</v>
       </c>
       <c r="AQ70">
-        <v>0.6496362156490818</v>
+        <v>0.5132592542358513</v>
       </c>
       <c r="AR70">
-        <v>0.9088896513462998</v>
+        <v>0.4854571676662865</v>
       </c>
       <c r="AS70">
-        <v>0.9109340342935042</v>
+        <v>0.47627835613362</v>
       </c>
       <c r="AT70">
-        <v>0.9912319793882176</v>
+        <v>0.3822186655433774</v>
       </c>
       <c r="AU70">
-        <v>0.9920298111023556</v>
+        <v>0.3428326026959044</v>
       </c>
       <c r="AV70">
-        <v>1.388749110572178</v>
+        <v>0.49252862446135</v>
       </c>
       <c r="AW70">
-        <v>0.4837136438943048</v>
+        <v>0.386705041387188</v>
       </c>
       <c r="AX70">
         <v>0.386705041387188</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.386705041387188</v>
       </c>
-      <c r="BA70">
-        <v>0.386705041387188</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.8225165874051007</v>
-      </c>
-      <c r="AH71">
-        <v>0.7574982797528693</v>
-      </c>
-      <c r="AI71">
-        <v>0.7585162100499503</v>
-      </c>
-      <c r="AJ71">
-        <v>0.7539091879724626</v>
-      </c>
-      <c r="AK71">
-        <v>0.7185388267714377</v>
-      </c>
-      <c r="AL71">
-        <v>0.7724605250838755</v>
-      </c>
-      <c r="AM71">
-        <v>0.6346014696223556</v>
-      </c>
       <c r="AN71">
-        <v>0.6514474443646499</v>
+        <v>0.6488765207861197</v>
       </c>
       <c r="AO71">
-        <v>0.6496185811809393</v>
+        <v>0.6009647375493281</v>
       </c>
       <c r="AP71">
-        <v>0.5959302623501221</v>
+        <v>0.5640634544081855</v>
       </c>
       <c r="AQ71">
-        <v>0.5841660863199943</v>
+        <v>0.5181126406813241</v>
       </c>
       <c r="AR71">
-        <v>0.4336642039769993</v>
+        <v>0.4836894873793296</v>
       </c>
       <c r="AS71">
-        <v>0.7627636790512184</v>
+        <v>0.4761669933411086</v>
       </c>
       <c r="AT71">
-        <v>0.8417464084844397</v>
+        <v>0.4753403206676649</v>
       </c>
       <c r="AU71">
-        <v>0.8450224808734816</v>
+        <v>0.5359592595196394</v>
       </c>
       <c r="AV71">
-        <v>0.7494877930503776</v>
+        <v>0.5748790293003536</v>
       </c>
       <c r="AW71">
-        <v>0.4608013055509304</v>
+        <v>0.6335244174289395</v>
       </c>
       <c r="AX71">
-        <v>0.3412443502074325</v>
+        <v>-0.6950112442994083</v>
       </c>
       <c r="AY71">
         <v>-0.6950112442994083</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>-0.6950112442994083</v>
       </c>
-      <c r="BA71">
-        <v>-0.6950112442994083</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.8224969112329032</v>
-      </c>
-      <c r="AH72">
-        <v>0.7574834798238461</v>
-      </c>
-      <c r="AI72">
-        <v>0.7585002298122455</v>
-      </c>
-      <c r="AJ72">
-        <v>0.7538907781218205</v>
-      </c>
-      <c r="AK72">
-        <v>0.7201591645034253</v>
-      </c>
-      <c r="AL72">
-        <v>0.7732857139389379</v>
-      </c>
-      <c r="AM72">
-        <v>0.6380209545878321</v>
-      </c>
-      <c r="AN72">
-        <v>0.6543768057822704</v>
-      </c>
       <c r="AO72">
-        <v>0.6489676795127115</v>
+        <v>0.6011389526577352</v>
       </c>
       <c r="AP72">
-        <v>0.6129903541362258</v>
+        <v>0.5627386483363621</v>
       </c>
       <c r="AQ72">
-        <v>0.6037115851842668</v>
+        <v>0.5180526300442969</v>
       </c>
       <c r="AR72">
-        <v>0.6006027202257682</v>
+        <v>0.4854380533017784</v>
       </c>
       <c r="AS72">
-        <v>0.76226945697681</v>
+        <v>0.4556322386292578</v>
       </c>
       <c r="AT72">
-        <v>0.8418459320397034</v>
+        <v>0.4564735235566955</v>
       </c>
       <c r="AU72">
-        <v>0.8435404921775671</v>
+        <v>0.4645472842947899</v>
       </c>
       <c r="AV72">
-        <v>0.2828038154446944</v>
+        <v>0.4268837148131734</v>
       </c>
       <c r="AW72">
-        <v>0.5085687701863719</v>
+        <v>0.4538374201684457</v>
       </c>
       <c r="AX72">
-        <v>0.3936156527045114</v>
+        <v>0.8316550723915614</v>
       </c>
       <c r="AY72">
-        <v>-0.03810692497674495</v>
+        <v>-0.3135696110003181</v>
       </c>
       <c r="AZ72">
         <v>-0.3135696110003181</v>
       </c>
-      <c r="BA72">
-        <v>-0.3135696110003181</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.7194425101333252</v>
-      </c>
-      <c r="AL73">
-        <v>0.7729527031308813</v>
-      </c>
-      <c r="AM73">
-        <v>0.6365310244462121</v>
-      </c>
-      <c r="AN73">
-        <v>0.6531340022560929</v>
-      </c>
-      <c r="AO73">
-        <v>0.6488371130363175</v>
-      </c>
       <c r="AP73">
-        <v>0.6175073096557414</v>
+        <v>0.5630104947247174</v>
       </c>
       <c r="AQ73">
-        <v>0.6089399945307324</v>
+        <v>0.5172616277386004</v>
       </c>
       <c r="AR73">
-        <v>0.6296992602881917</v>
+        <v>0.4852128891461288</v>
       </c>
       <c r="AS73">
-        <v>0.7624163706171743</v>
+        <v>0.4617672085751865</v>
       </c>
       <c r="AT73">
-        <v>0.8419115605921945</v>
+        <v>0.4466748176837277</v>
       </c>
       <c r="AU73">
-        <v>0.8436080455770423</v>
+        <v>0.4535225472474589</v>
       </c>
       <c r="AV73">
-        <v>0.1389654801410956</v>
+        <v>0.4571857267416202</v>
       </c>
       <c r="AW73">
-        <v>0.5316371031389053</v>
+        <v>0.4661457962083905</v>
       </c>
       <c r="AX73">
-        <v>0.4313854517770039</v>
+        <v>0.5558432533816539</v>
       </c>
       <c r="AY73">
-        <v>-0.1759809108671533</v>
+        <v>0.8458364992012953</v>
       </c>
       <c r="AZ73">
-        <v>-0.02815245833134838</v>
-      </c>
-      <c r="BA73">
         <v>-0.02110736963342674</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.7193920902765932</v>
-      </c>
-      <c r="AL74">
-        <v>0.7729202097773576</v>
-      </c>
-      <c r="AM74">
-        <v>0.6363845181872677</v>
-      </c>
-      <c r="AN74">
-        <v>0.653005293679159</v>
-      </c>
-      <c r="AO74">
-        <v>0.6489874762283471</v>
-      </c>
-      <c r="AP74">
-        <v>0.6132158165092402</v>
-      </c>
       <c r="AQ74">
-        <v>0.6040648810375003</v>
+        <v>0.5175046021880719</v>
       </c>
       <c r="AR74">
-        <v>0.5935537200178594</v>
+        <v>0.484986616648007</v>
       </c>
       <c r="AS74">
-        <v>0.7625635396549626</v>
+        <v>0.4633593843846695</v>
       </c>
       <c r="AT74">
-        <v>0.8419772647533534</v>
+        <v>0.4526881523900496</v>
       </c>
       <c r="AU74">
-        <v>0.8436756745285408</v>
+        <v>0.4687117142825246</v>
       </c>
       <c r="AV74">
-        <v>0.1397440425223948</v>
+        <v>0.4728620321365729</v>
       </c>
       <c r="AW74">
-        <v>0.5545297463714007</v>
+        <v>0.4925271237599618</v>
       </c>
       <c r="AX74">
-        <v>0.446775552486244</v>
+        <v>0.384223540796146</v>
       </c>
       <c r="AY74">
-        <v>-0.1755138007415127</v>
+        <v>0.4398269357664749</v>
       </c>
       <c r="AZ74">
-        <v>-0.003984653650306313</v>
-      </c>
-      <c r="BA74">
-        <v>-0.0002871190691706715</v>
+        <v>0.6577762930268625</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.7195218654325639</v>
-      </c>
-      <c r="AL75">
-        <v>0.7729799829680938</v>
-      </c>
-      <c r="AM75">
-        <v>0.6366864431631662</v>
-      </c>
-      <c r="AN75">
-        <v>0.6532528627788617</v>
-      </c>
-      <c r="AO75">
-        <v>0.6489640861099926</v>
-      </c>
-      <c r="AP75">
-        <v>0.6137422034382599</v>
-      </c>
-      <c r="AQ75">
-        <v>0.6046401591886119</v>
-      </c>
       <c r="AR75">
-        <v>0.5994321619552931</v>
+        <v>0.4850919359446758</v>
       </c>
       <c r="AS75">
-        <v>0.4273186631773193</v>
+        <v>0.4618635260786605</v>
       </c>
       <c r="AT75">
-        <v>0.3755130980500061</v>
+        <v>0.4525280287799967</v>
       </c>
       <c r="AU75">
-        <v>0.3096072441928199</v>
+        <v>0.4660419092478459</v>
       </c>
       <c r="AV75">
-        <v>0.6376880238326557</v>
+        <v>0.4631407309904131</v>
       </c>
       <c r="AW75">
-        <v>0.5723834558118739</v>
+        <v>0.4826008778075686</v>
       </c>
       <c r="AX75">
-        <v>0.3369988469073633</v>
+        <v>0.481337474283236</v>
       </c>
       <c r="AY75">
-        <v>-0.1491707061428684</v>
+        <v>0.3701862820288181</v>
       </c>
       <c r="AZ75">
-        <v>0.09793819521391356</v>
-      </c>
-      <c r="BA75">
-        <v>0.101051756130218</v>
+        <v>0.4086167595808148</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.7194919936393388</v>
-      </c>
-      <c r="AL76">
-        <v>0.7729682162443575</v>
-      </c>
-      <c r="AM76">
-        <v>0.6366214784800026</v>
-      </c>
-      <c r="AN76">
-        <v>0.6532017553858674</v>
-      </c>
-      <c r="AO76">
-        <v>0.6489455943427995</v>
-      </c>
-      <c r="AP76">
-        <v>0.6143179749575084</v>
-      </c>
-      <c r="AQ76">
-        <v>0.6052931405632591</v>
-      </c>
-      <c r="AR76">
-        <v>0.6036600184721371</v>
-      </c>
       <c r="AS76">
-        <v>0.5284259484999368</v>
+        <v>0.4620439434797994</v>
       </c>
       <c r="AT76">
-        <v>0.51543913451712</v>
+        <v>0.4515823441713721</v>
       </c>
       <c r="AU76">
-        <v>0.4686890694098194</v>
+        <v>0.4643000093914224</v>
       </c>
       <c r="AV76">
-        <v>0.489827850984822</v>
+        <v>0.4634180463637864</v>
       </c>
       <c r="AW76">
-        <v>0.5000000000000142</v>
+        <v>0.4811489948248747</v>
       </c>
       <c r="AX76">
-        <v>0.3320622454261297</v>
+        <v>0.4808947679169401</v>
       </c>
       <c r="AY76">
-        <v>-0.07408824854879015</v>
+        <v>0.4573338037730484</v>
       </c>
       <c r="AZ76">
-        <v>0.1203260072210526</v>
-      </c>
-      <c r="BA76">
-        <v>0.1261434453241748</v>
+        <v>0.3720841039094073</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.6489551833822621</v>
-      </c>
-      <c r="AP77">
-        <v>0.6140533365239875</v>
-      </c>
-      <c r="AQ77">
-        <v>0.605000142393335</v>
-      </c>
-      <c r="AR77">
-        <v>0.6014407415284004</v>
-      </c>
-      <c r="AS77">
-        <v>0.554387699773972</v>
-      </c>
       <c r="AT77">
-        <v>0.5513206345364557</v>
+        <v>0.4518884462068175</v>
       </c>
       <c r="AU77">
-        <v>0.5097560585507802</v>
+        <v>0.4652626477556994</v>
       </c>
       <c r="AV77">
-        <v>0.4507437235597405</v>
+        <v>0.464957585415249</v>
       </c>
       <c r="AW77">
-        <v>0.4233226569284341</v>
+        <v>0.4832421222031882</v>
       </c>
       <c r="AX77">
-        <v>0.3271128152376122</v>
+        <v>0.4648722583649216</v>
       </c>
       <c r="AY77">
-        <v>0.00110649739757207</v>
+        <v>0.4429215828099992</v>
       </c>
       <c r="AZ77">
-        <v>0.1966258437859665</v>
-      </c>
-      <c r="BA77">
-        <v>0.2012915573803298</v>
+        <v>0.4234873645115933</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.6489554214893298</v>
-      </c>
-      <c r="AP78">
-        <v>0.6140348722561642</v>
-      </c>
-      <c r="AQ78">
-        <v>0.6049773697443794</v>
-      </c>
-      <c r="AR78">
-        <v>0.6013987901125878</v>
-      </c>
-      <c r="AS78">
-        <v>0.5295272852711196</v>
-      </c>
-      <c r="AT78">
-        <v>0.5172009717530908</v>
-      </c>
       <c r="AU78">
-        <v>0.4711745528698562</v>
+        <v>0.4652675151786637</v>
       </c>
       <c r="AV78">
-        <v>0.4869709466326411</v>
+        <v>0.464453153397392</v>
       </c>
       <c r="AW78">
-        <v>0.3700213942127988</v>
+        <v>0.4828607108871977</v>
       </c>
       <c r="AX78">
-        <v>0.3249233776517713</v>
+        <v>0.469729070135642</v>
       </c>
       <c r="AY78">
-        <v>0.001408694805164146</v>
+        <v>0.4329150199983908</v>
       </c>
       <c r="AZ78">
-        <v>0.1969184063705995</v>
-      </c>
-      <c r="BA78">
-        <v>0.2015935159966631</v>
+        <v>0.4141728682708125</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.6489537175575933</v>
-      </c>
-      <c r="AP79">
-        <v>0.6140858072102234</v>
-      </c>
-      <c r="AQ79">
-        <v>0.6050337935461609</v>
-      </c>
-      <c r="AR79">
-        <v>0.6017774125940673</v>
-      </c>
-      <c r="AS79">
-        <v>0.5326543195008258</v>
-      </c>
-      <c r="AT79">
-        <v>0.521447640242615</v>
-      </c>
-      <c r="AU79">
-        <v>0.4758657862440673</v>
-      </c>
       <c r="AV79">
-        <v>0.4827339619283051</v>
+        <v>0.4643463873098602</v>
       </c>
       <c r="AW79">
-        <v>0.3789534715209514</v>
+        <v>0.4826243906357602</v>
       </c>
       <c r="AX79">
-        <v>0.3771242893501458</v>
+        <v>0.4709444815793262</v>
       </c>
       <c r="AY79">
-        <v>0.4055882763779417</v>
+        <v>0.4382409188890284</v>
       </c>
       <c r="AZ79">
-        <v>0.3367362426120364</v>
-      </c>
-      <c r="BA79">
-        <v>0.2062553876482696</v>
+        <v>0.4085710565635282</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.6489541938732036</v>
-      </c>
-      <c r="AP80">
-        <v>0.6140735379454743</v>
-      </c>
-      <c r="AQ80">
-        <v>0.605020746297815</v>
-      </c>
-      <c r="AR80">
-        <v>0.6016724632847914</v>
-      </c>
-      <c r="AS80">
-        <v>0.5358980243800561</v>
-      </c>
-      <c r="AT80">
-        <v>0.5258686537402073</v>
-      </c>
-      <c r="AU80">
-        <v>0.4808584258285616</v>
-      </c>
-      <c r="AV80">
-        <v>0.4779559791412325</v>
-      </c>
       <c r="AW80">
-        <v>0.3855703057299891</v>
+        <v>0.4827586582751805</v>
       </c>
       <c r="AX80">
-        <v>0.3613426256622346</v>
+        <v>0.4697737281790439</v>
       </c>
       <c r="AY80">
-        <v>0.2819215714857669</v>
+        <v>0.4383022116899877</v>
       </c>
       <c r="AZ80">
-        <v>0.2938193780327517</v>
-      </c>
-      <c r="BA80">
-        <v>0.2038040215726227</v>
+        <v>0.4117503511046086</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.5343928485650481</v>
-      </c>
-      <c r="AT81">
-        <v>0.5238335495058121</v>
-      </c>
-      <c r="AU81">
-        <v>0.4785941833520467</v>
-      </c>
-      <c r="AV81">
-        <v>0.4800793456053251</v>
-      </c>
-      <c r="AW81">
-        <v>0.3819505269613488</v>
-      </c>
       <c r="AX81">
-        <v>0.3570277443678357</v>
+        <v>0.4699210501382626</v>
       </c>
       <c r="AY81">
-        <v>0.2502988470518963</v>
+        <v>0.4374115468488411</v>
       </c>
       <c r="AZ81">
-        <v>0.2828006575458923</v>
-      </c>
-      <c r="BA81">
-        <v>0.2041108595618084</v>
+        <v>0.4117182879593893</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.5343006000469007</v>
-      </c>
-      <c r="AT82">
-        <v>0.5237061491578341</v>
-      </c>
-      <c r="AU82">
-        <v>0.4784417643246393</v>
-      </c>
-      <c r="AV82">
-        <v>0.4802453371974866</v>
-      </c>
-      <c r="AW82">
-        <v>0.3819061798627802</v>
-      </c>
-      <c r="AX82">
-        <v>0.3611463807319887</v>
-      </c>
       <c r="AY82">
-        <v>0.2812184771070446</v>
+        <v>0.4376654009520083</v>
       </c>
       <c r="AZ82">
-        <v>0.2935997749456732</v>
-      </c>
-      <c r="BA82">
-        <v>0.2044182848009513</v>
+        <v>0.4112102958115456</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.534581932120435</v>
-      </c>
-      <c r="AT83">
-        <v>0.5240840527083406</v>
-      </c>
-      <c r="AU83">
-        <v>0.4788621859819797</v>
-      </c>
-      <c r="AV83">
-        <v>0.4798423636029872</v>
-      </c>
-      <c r="AW83">
-        <v>0.3825569879407016</v>
-      </c>
-      <c r="AX83">
-        <v>0.3606314510192469</v>
-      </c>
-      <c r="AY83">
-        <v>0.277195314930545</v>
-      </c>
       <c r="AZ83">
-        <v>0.2921942008054703</v>
-      </c>
-      <c r="BA83">
-        <v>0.2290031393942197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.5345126003468214</v>
-      </c>
-      <c r="AT84">
-        <v>0.5239919481566638</v>
-      </c>
-      <c r="AU84">
-        <v>0.4787621916356488</v>
-      </c>
-      <c r="AV84">
-        <v>0.4799342659932088</v>
-      </c>
-      <c r="AW84">
-        <v>0.3823633860606612</v>
-      </c>
-      <c r="AX84">
-        <v>0.3600648388095157</v>
-      </c>
-      <c r="AY84">
-        <v>0.2731132320509055</v>
-      </c>
-      <c r="AZ84">
-        <v>0.2907578128029952</v>
-      </c>
-      <c r="BA84">
-        <v>0.2212536073344282</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.3823087577304386</v>
-      </c>
-      <c r="AX85">
-        <v>0.360331109448396</v>
-      </c>
-      <c r="AY85">
-        <v>0.2750529507540792</v>
-      </c>
-      <c r="AZ85">
-        <v>0.2914412335295753</v>
-      </c>
-      <c r="BA85">
-        <v>0.2192869585000683</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.3823597377614164</v>
-      </c>
-      <c r="AX86">
-        <v>0.3603485312334949</v>
-      </c>
-      <c r="AY86">
-        <v>0.2751610778330014</v>
-      </c>
-      <c r="AZ86">
-        <v>0.2914800774313068</v>
-      </c>
-      <c r="BA86">
-        <v>0.2212869458938342</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.3823535754880526</v>
-      </c>
-      <c r="AX87">
-        <v>0.3602961931103718</v>
-      </c>
-      <c r="AY87">
-        <v>0.274794730606575</v>
-      </c>
-      <c r="AZ87">
-        <v>0.2913499954232426</v>
-      </c>
-      <c r="BA87">
-        <v>0.2210123303207502</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.3823465100151338</v>
-      </c>
-      <c r="AX88">
-        <v>0.3603093318803965</v>
-      </c>
-      <c r="AY88">
-        <v>0.2748881965762994</v>
-      </c>
-      <c r="AZ88">
-        <v>0.2913831601720268</v>
-      </c>
-      <c r="BA88">
-        <v>0.2207409800748688</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.2208749681108944</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.2208815093178497</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.2208555249326769</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.2208624889767151</v>
+        <v>0.4113663327441157</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>0.1458974169190711</v>
       </c>
       <c r="AG64">
-        <v>12.42550598425463</v>
+        <v>-16.20527914676213</v>
       </c>
       <c r="AH64">
         <v>18.14253003720006</v>
@@ -9166,10 +9166,10 @@
         <v>0.6361785257419179</v>
       </c>
       <c r="AG65">
-        <v>-1.363087025057079</v>
+        <v>-8.818172192972474</v>
       </c>
       <c r="AH65">
-        <v>2.813188392915293</v>
+        <v>-6.056727466208425</v>
       </c>
       <c r="AI65">
         <v>4.544557841334466</v>
@@ -9255,13 +9255,13 @@
         <v>0.628032846347076</v>
       </c>
       <c r="AG66">
-        <v>0.9555169986974928</v>
+        <v>-3.687714751839695</v>
       </c>
       <c r="AH66">
-        <v>-1.980716282386966</v>
+        <v>3.727754767560545</v>
       </c>
       <c r="AI66">
-        <v>1.806909003397877</v>
+        <v>-2.819403143041533</v>
       </c>
       <c r="AJ66">
         <v>1.849039957006937</v>
@@ -9341,16 +9341,16 @@
         <v>0.5291456309467375</v>
       </c>
       <c r="AG67">
-        <v>0.212514072757355</v>
+        <v>-1.177128061853984</v>
       </c>
       <c r="AH67">
-        <v>0.6544220287710311</v>
+        <v>-1.080904416124471</v>
       </c>
       <c r="AI67">
-        <v>0.3294399676824808</v>
+        <v>0.2988449710406901</v>
       </c>
       <c r="AJ67">
-        <v>1.087285196410733</v>
+        <v>0.3472727457297161</v>
       </c>
       <c r="AK67">
         <v>0.5397909189180297</v>
@@ -9424,19 +9424,19 @@
         <v>0.4750775219338624</v>
       </c>
       <c r="AG68">
-        <v>0.3610475960955798</v>
+        <v>-0.3016665836970013</v>
       </c>
       <c r="AH68">
-        <v>0.9220447140612602</v>
+        <v>1.073045824072973</v>
       </c>
       <c r="AI68">
-        <v>0.8910364800990814</v>
+        <v>1.23099185794045</v>
       </c>
       <c r="AJ68">
-        <v>0.8000199227110611</v>
+        <v>0.8847565136471847</v>
       </c>
       <c r="AK68">
-        <v>1.450779288666709</v>
+        <v>0.9754652692541175</v>
       </c>
       <c r="AL68">
         <v>-0.9815688985294599</v>
@@ -9504,22 +9504,22 @@
         <v>0.4636789921176537</v>
       </c>
       <c r="AG69">
-        <v>0.3194340843600297</v>
+        <v>-0.1644908399040064</v>
       </c>
       <c r="AH69">
-        <v>0.5439563036043625</v>
+        <v>0.06594662426302787</v>
       </c>
       <c r="AI69">
-        <v>0.9464501724362321</v>
+        <v>0.5919682999342559</v>
       </c>
       <c r="AJ69">
-        <v>0.9901470627966625</v>
+        <v>0.9416993588413686</v>
       </c>
       <c r="AK69">
-        <v>0.8920614146566147</v>
+        <v>1.008570310649051</v>
       </c>
       <c r="AL69">
-        <v>0.368631518524424</v>
+        <v>1.465131654487012</v>
       </c>
       <c r="AM69">
         <v>4.784172743600905</v>
@@ -9581,25 +9581,25 @@
         <v>0.4676659372597918</v>
       </c>
       <c r="AG70">
-        <v>0.3285495135980861</v>
+        <v>-0.2553092176993484</v>
       </c>
       <c r="AH70">
-        <v>0.5601047640355946</v>
+        <v>0.5274558102601684</v>
       </c>
       <c r="AI70">
-        <v>0.8763834830220033</v>
+        <v>0.5004723102099922</v>
       </c>
       <c r="AJ70">
-        <v>0.9855334765089794</v>
+        <v>0.8757623917096397</v>
       </c>
       <c r="AK70">
-        <v>0.8897383854110168</v>
+        <v>0.9286579488357802</v>
       </c>
       <c r="AL70">
-        <v>1.312384916275544</v>
+        <v>1.088025989357783</v>
       </c>
       <c r="AM70">
-        <v>-2.021680416268424</v>
+        <v>0.1353661358179204</v>
       </c>
       <c r="AN70">
         <v>-2.12351799362105</v>
@@ -9655,28 +9655,28 @@
         <v>0.472101510872129</v>
       </c>
       <c r="AG71">
-        <v>0.3261656381630914</v>
+        <v>-0.3621747554517092</v>
       </c>
       <c r="AH71">
-        <v>0.6070110079409494</v>
+        <v>0.3139772564172091</v>
       </c>
       <c r="AI71">
-        <v>0.8832360572259953</v>
+        <v>0.6206328522295294</v>
       </c>
       <c r="AJ71">
-        <v>0.9575917120996733</v>
+        <v>0.8819280833314919</v>
       </c>
       <c r="AK71">
-        <v>0.9808053852431661</v>
+        <v>0.9440366954996671</v>
       </c>
       <c r="AL71">
-        <v>0.84913601648691</v>
+        <v>0.7831680998188</v>
       </c>
       <c r="AM71">
-        <v>1.120795806652628</v>
+        <v>0.6450169941323963</v>
       </c>
       <c r="AN71">
-        <v>1.118165634023697</v>
+        <v>1.281224837911668</v>
       </c>
       <c r="AO71">
         <v>0.2867860097325945</v>
@@ -9726,31 +9726,31 @@
         <v>0.4738301286064763</v>
       </c>
       <c r="AG72">
-        <v>0.3267136935292975</v>
+        <v>-0.4291589882535398</v>
       </c>
       <c r="AH72">
-        <v>0.598601450608882</v>
+        <v>0.4122943060388771</v>
       </c>
       <c r="AI72">
-        <v>0.8894689264023041</v>
+        <v>0.6233842986304722</v>
       </c>
       <c r="AJ72">
-        <v>0.9654427735935245</v>
+        <v>0.8876138617829474</v>
       </c>
       <c r="AK72">
-        <v>0.9575186497989961</v>
+        <v>0.9531120262228678</v>
       </c>
       <c r="AL72">
-        <v>0.8181465221165609</v>
+        <v>0.9244038714112716</v>
       </c>
       <c r="AM72">
-        <v>1.316356980451013</v>
+        <v>1.198470738147211</v>
       </c>
       <c r="AN72">
-        <v>1.189540212432646</v>
+        <v>1.245324055907913</v>
       </c>
       <c r="AO72">
-        <v>0.1289585187160185</v>
+        <v>1.220727415386473</v>
       </c>
       <c r="AP72">
         <v>1.982042055103904</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.326575402176002</v>
+        <v>-0.4595105377516747</v>
       </c>
       <c r="AH73">
-        <v>0.5936444211339392</v>
+        <v>0.3669221414647753</v>
       </c>
       <c r="AI73">
-        <v>0.8876012633304675</v>
+        <v>0.6023571564355976</v>
       </c>
       <c r="AJ73">
-        <v>0.9677151283174504</v>
+        <v>0.8859378540407596</v>
       </c>
       <c r="AK73">
-        <v>0.948824596944899</v>
+        <v>0.9482335735283689</v>
       </c>
       <c r="AL73">
-        <v>0.9007327813113941</v>
+        <v>0.9379172283027728</v>
       </c>
       <c r="AM73">
-        <v>0.7704201936512853</v>
+        <v>0.9781509574491528</v>
       </c>
       <c r="AN73">
-        <v>0.6274155311250403</v>
+        <v>0.7317538351844347</v>
       </c>
       <c r="AO73">
-        <v>1.041073095222798</v>
+        <v>0.7814731312078008</v>
       </c>
       <c r="AP73">
-        <v>-0.4259770459179748</v>
+        <v>0.4928654707313392</v>
       </c>
       <c r="AQ73">
         <v>-0.9572753870817365</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.3266080168806442</v>
-      </c>
       <c r="AH74">
-        <v>0.595403256457044</v>
+        <v>0.3878409298910455</v>
       </c>
       <c r="AI74">
-        <v>0.887276096853304</v>
+        <v>0.6041630745355816</v>
       </c>
       <c r="AJ74">
-        <v>0.9659315797611444</v>
+        <v>0.8856566752239686</v>
       </c>
       <c r="AK74">
-        <v>0.9548540734785556</v>
+        <v>0.9480179794784256</v>
       </c>
       <c r="AL74">
-        <v>0.8841817261668099</v>
+        <v>0.9111583302266211</v>
       </c>
       <c r="AM74">
-        <v>0.890888140927582</v>
+        <v>0.9540877189177502</v>
       </c>
       <c r="AN74">
-        <v>0.78147766172392</v>
+        <v>0.8794642805373022</v>
       </c>
       <c r="AO74">
-        <v>0.7867303177724767</v>
+        <v>0.7505592752363462</v>
       </c>
       <c r="AP74">
-        <v>0.8809894144637853</v>
+        <v>0.677851552141815</v>
       </c>
       <c r="AQ74">
-        <v>-0.6379881427730965</v>
+        <v>1.062259070277484</v>
       </c>
       <c r="AR74">
         <v>0.4216256340467766</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.5958099999658305</v>
-      </c>
       <c r="AI75">
-        <v>0.8875347884375812</v>
+        <v>0.607594570464113</v>
       </c>
       <c r="AJ75">
-        <v>0.9660395616570239</v>
+        <v>0.8858812173313815</v>
       </c>
       <c r="AK75">
-        <v>0.9546950488529665</v>
+        <v>0.9488724333972909</v>
       </c>
       <c r="AL75">
-        <v>0.8752150260107832</v>
+        <v>0.9158817682573857</v>
       </c>
       <c r="AM75">
-        <v>0.9429945917971275</v>
+        <v>0.9929503301078271</v>
       </c>
       <c r="AN75">
-        <v>0.8298096839079803</v>
+        <v>0.9175342676256594</v>
       </c>
       <c r="AO75">
-        <v>0.7025467372957435</v>
+        <v>0.8340844598442582</v>
       </c>
       <c r="AP75">
-        <v>0.9474422321700283</v>
+        <v>0.8912411821922919</v>
       </c>
       <c r="AQ75">
-        <v>1.457086456290074</v>
+        <v>0.9890434433710511</v>
       </c>
       <c r="AR75">
-        <v>-0.04993664583679447</v>
+        <v>1.195948320110379</v>
       </c>
       <c r="AS75">
         <v>-1.083093549703378</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.8875223632488428</v>
-      </c>
       <c r="AJ76">
-        <v>0.9662851345566834</v>
+        <v>0.8858692367077602</v>
       </c>
       <c r="AK76">
-        <v>0.9537601224773931</v>
+        <v>0.9486853526512214</v>
       </c>
       <c r="AL76">
-        <v>0.8802151267890349</v>
+        <v>0.9190603492649193</v>
       </c>
       <c r="AM76">
-        <v>0.9097213088107231</v>
+        <v>0.9863242540604678</v>
       </c>
       <c r="AN76">
-        <v>0.7898254012501805</v>
+        <v>0.8842821502451245</v>
       </c>
       <c r="AO76">
-        <v>0.7740681959834753</v>
+        <v>0.815070173722325</v>
       </c>
       <c r="AP76">
-        <v>0.6643802921317186</v>
+        <v>0.791296784310505</v>
       </c>
       <c r="AQ76">
-        <v>0.7218975396478771</v>
+        <v>0.6087567192400424</v>
       </c>
       <c r="AR76">
-        <v>0.9748449066617448</v>
+        <v>0.6082885827328689</v>
       </c>
       <c r="AS76">
-        <v>0.3662234592800075</v>
+        <v>1.278787676587202</v>
       </c>
       <c r="AT76">
         <v>-0.756372051364167</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.9662058048393308</v>
-      </c>
       <c r="AK77">
-        <v>0.9540288019540379</v>
+        <v>0.9485942088730043</v>
       </c>
       <c r="AL77">
-        <v>0.8803534380348211</v>
+        <v>0.9174574559308406</v>
       </c>
       <c r="AM77">
-        <v>0.9107738447871725</v>
+        <v>0.9823173256406766</v>
       </c>
       <c r="AN77">
-        <v>0.793564482292992</v>
+        <v>0.8876349425725918</v>
       </c>
       <c r="AO77">
-        <v>0.7669546077631427</v>
+        <v>0.8064179728870469</v>
       </c>
       <c r="AP77">
-        <v>0.7411812293470288</v>
+        <v>0.783535451683375</v>
       </c>
       <c r="AQ77">
-        <v>0.5300687180222803</v>
+        <v>0.7446218143362168</v>
       </c>
       <c r="AR77">
-        <v>0.7433456476287529</v>
+        <v>0.6393793612303481</v>
       </c>
       <c r="AS77">
-        <v>1.070060105724888</v>
+        <v>0.8256231734524723</v>
       </c>
       <c r="AT77">
-        <v>-1.023919595764212</v>
+        <v>1.330980552634881</v>
       </c>
       <c r="AU77">
         <v>-1.594471108675521</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.9541103644650362</v>
-      </c>
       <c r="AL78">
-        <v>0.87951319366561</v>
+        <v>0.9173503944318119</v>
       </c>
       <c r="AM78">
-        <v>0.9156900879784651</v>
+        <v>0.9843463217348568</v>
       </c>
       <c r="AN78">
-        <v>0.7991340103787176</v>
+        <v>0.8918194799847671</v>
       </c>
       <c r="AO78">
-        <v>0.7563791926370702</v>
+        <v>0.8121580065001591</v>
       </c>
       <c r="AP78">
-        <v>0.7734536898887505</v>
+        <v>0.8041254524630429</v>
       </c>
       <c r="AQ78">
-        <v>0.7412593070067328</v>
+        <v>0.7773138842860552</v>
       </c>
       <c r="AR78">
-        <v>0.6137234450023074</v>
+        <v>0.7477540152408166</v>
       </c>
       <c r="AS78">
-        <v>0.5635243758043578</v>
+        <v>0.5074882600626084</v>
       </c>
       <c r="AT78">
-        <v>1.326075861298633</v>
+        <v>0.6661490175697632</v>
       </c>
       <c r="AU78">
-        <v>-0.2547854660834332</v>
+        <v>1.471923595658225</v>
       </c>
       <c r="AV78">
         <v>1.08522880488573</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.8797100506287864</v>
-      </c>
       <c r="AM79">
-        <v>0.9141649083563924</v>
+        <v>0.9844068509526909</v>
       </c>
       <c r="AN79">
-        <v>0.7968654645386946</v>
+        <v>0.8901453997822927</v>
       </c>
       <c r="AO79">
-        <v>0.7609261065895869</v>
+        <v>0.8119591264029846</v>
       </c>
       <c r="AP79">
-        <v>0.7477889173251548</v>
+        <v>0.7991400633664252</v>
       </c>
       <c r="AQ79">
-        <v>0.7128044361041094</v>
+        <v>0.7397377312869647</v>
       </c>
       <c r="AR79">
-        <v>0.7006850147984314</v>
+        <v>0.7070259030706438</v>
       </c>
       <c r="AS79">
-        <v>0.5834552221121716</v>
+        <v>0.69652216163249</v>
       </c>
       <c r="AT79">
-        <v>0.6661186481884673</v>
+        <v>0.4646405082836394</v>
       </c>
       <c r="AU79">
-        <v>1.166958449261093</v>
+        <v>0.7164244169564959</v>
       </c>
       <c r="AV79">
-        <v>1.565950786385088</v>
+        <v>0.708908483274529</v>
       </c>
       <c r="AW79">
         <v>-0.150193889177217</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.9138175373322599</v>
-      </c>
       <c r="AN80">
-        <v>0.7966057058559618</v>
+        <v>0.8899654860654793</v>
       </c>
       <c r="AO80">
-        <v>0.7614071688863453</v>
+        <v>0.8110427503950481</v>
       </c>
       <c r="AP80">
-        <v>0.7494925894925348</v>
+        <v>0.7969439019588536</v>
       </c>
       <c r="AQ80">
-        <v>0.6788646345723364</v>
+        <v>0.7451827960045969</v>
       </c>
       <c r="AR80">
-        <v>0.6987924154517784</v>
+        <v>0.698170579619086</v>
       </c>
       <c r="AS80">
-        <v>0.6771334796070231</v>
+        <v>0.6989307411658648</v>
       </c>
       <c r="AT80">
-        <v>0.421834197312482</v>
+        <v>0.6559994962826954</v>
       </c>
       <c r="AU80">
-        <v>0.4982974857142226</v>
+        <v>0.3696213192622342</v>
       </c>
       <c r="AV80">
-        <v>0.1826440411112302</v>
+        <v>0.4479500846790414</v>
       </c>
       <c r="AW80">
-        <v>-0.2475555093771362</v>
+        <v>0.6437423559602015</v>
       </c>
       <c r="AX80">
         <v>-1.874498177919662</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.7970610327532761</v>
-      </c>
       <c r="AO81">
-        <v>0.7604457405599718</v>
+        <v>0.8113426725219968</v>
       </c>
       <c r="AP81">
-        <v>0.7540932106366213</v>
+        <v>0.7985330045982614</v>
       </c>
       <c r="AQ81">
-        <v>0.6955195827198286</v>
+        <v>0.7509569837487693</v>
       </c>
       <c r="AR81">
-        <v>0.6821642874300602</v>
+        <v>0.7091835808489509</v>
       </c>
       <c r="AS81">
-        <v>0.6438372641853539</v>
+        <v>0.6612476143551336</v>
       </c>
       <c r="AT81">
-        <v>0.6203272494163909</v>
+        <v>0.6363148098657458</v>
       </c>
       <c r="AU81">
-        <v>0.4330602983888652</v>
+        <v>0.6156624467538243</v>
       </c>
       <c r="AV81">
-        <v>0.5137955098538478</v>
+        <v>0.6007453637909086</v>
       </c>
       <c r="AW81">
-        <v>0.9145765825663248</v>
+        <v>0.6747650011195335</v>
       </c>
       <c r="AX81">
-        <v>0.386705041387188</v>
+        <v>1.324670375991641</v>
       </c>
       <c r="AY81">
         <v>-2.24094337053269</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.7606576056902723</v>
-      </c>
       <c r="AP82">
-        <v>0.7522871230322388</v>
+        <v>0.7984387429361632</v>
       </c>
       <c r="AQ82">
-        <v>0.69710945685825</v>
+        <v>0.7480279638672374</v>
       </c>
       <c r="AR82">
-        <v>0.6878114240115052</v>
+        <v>0.7074627173597021</v>
       </c>
       <c r="AS82">
-        <v>0.6357941168017889</v>
+        <v>0.6726839995257508</v>
       </c>
       <c r="AT82">
-        <v>0.6064506594917012</v>
+        <v>0.6051427484744293</v>
       </c>
       <c r="AU82">
-        <v>0.5761105230474077</v>
+        <v>0.6064917063157778</v>
       </c>
       <c r="AV82">
-        <v>0.6819592255576238</v>
+        <v>0.6044948002015005</v>
       </c>
       <c r="AW82">
-        <v>0.5748940587305644</v>
+        <v>0.5121263647596965</v>
       </c>
       <c r="AX82">
-        <v>1.062548200217444</v>
+        <v>0.7532331891583695</v>
       </c>
       <c r="AY82">
-        <v>-0.6950112442994083</v>
+        <v>1.782513771281655</v>
       </c>
       <c r="AZ82">
         <v>3.234504069499366</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.7519401940476649</v>
-      </c>
       <c r="AQ83">
-        <v>0.6932066075584782</v>
+        <v>0.7478076720425119</v>
       </c>
       <c r="AR83">
-        <v>0.6893151634818988</v>
+        <v>0.7057937641798477</v>
       </c>
       <c r="AS83">
-        <v>0.6448837645468408</v>
+        <v>0.6764306816894236</v>
       </c>
       <c r="AT83">
-        <v>0.5731592853053975</v>
+        <v>0.6185654562506112</v>
       </c>
       <c r="AU83">
-        <v>0.5458509454676123</v>
+        <v>0.5631614608169513</v>
       </c>
       <c r="AV83">
-        <v>0.5656907608279305</v>
+        <v>0.5737547051207623</v>
       </c>
       <c r="AW83">
-        <v>0.4534033643776628</v>
+        <v>0.5562605270577222</v>
       </c>
       <c r="AX83">
-        <v>0.418355265579842</v>
+        <v>0.2977653677344503</v>
       </c>
       <c r="AY83">
-        <v>1.308239954363243</v>
+        <v>0.6591004963448737</v>
       </c>
       <c r="AZ83">
-        <v>-0.3135696110003181</v>
+        <v>0.4093010573960839</v>
       </c>
       <c r="BA83">
         <v>-0.1262090121580286</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.694130927774292</v>
-      </c>
       <c r="AR84">
-        <v>0.6877196108525677</v>
+        <v>0.7066709318826764</v>
       </c>
       <c r="AS84">
-        <v>0.6436212175287988</v>
+        <v>0.6730130798994211</v>
       </c>
       <c r="AT84">
-        <v>0.5858451132172061</v>
+        <v>0.620499408931916</v>
       </c>
       <c r="AU84">
-        <v>0.5283322406609715</v>
+        <v>0.5779365426171621</v>
       </c>
       <c r="AV84">
-        <v>0.5685979650228108</v>
+        <v>0.5824420808321719</v>
       </c>
       <c r="AW84">
-        <v>0.5570478358609592</v>
+        <v>0.57401942048054</v>
       </c>
       <c r="AX84">
-        <v>0.4831087361243788</v>
+        <v>0.5514564795224823</v>
       </c>
       <c r="AY84">
-        <v>0.4542899577731945</v>
+        <v>0.2220858510284355</v>
       </c>
       <c r="AZ84">
-        <v>0.1962551727069285</v>
+        <v>-0.008667462938329096</v>
       </c>
       <c r="BA84">
-        <v>-0.02110736963342674</v>
+        <v>0.2762574804029987</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.6879275937719207</v>
-      </c>
       <c r="AS85">
-        <v>0.642223834320804</v>
+        <v>0.6733611462260575</v>
       </c>
       <c r="AT85">
-        <v>0.5882970464511882</v>
+        <v>0.617292794352683</v>
       </c>
       <c r="AU85">
-        <v>0.5391164611701116</v>
+        <v>0.58160181517123</v>
       </c>
       <c r="AV85">
-        <v>0.5903895594007339</v>
+        <v>0.5857351915404165</v>
       </c>
       <c r="AW85">
-        <v>0.5487220333963978</v>
+        <v>0.5600376426934187</v>
       </c>
       <c r="AX85">
-        <v>0.5883995209464885</v>
+        <v>0.5630328900675318</v>
       </c>
       <c r="AY85">
-        <v>0.3350350293333043</v>
+        <v>0.5662051322825263</v>
       </c>
       <c r="AZ85">
-        <v>0.7343798725577317</v>
+        <v>0.6795396362526511</v>
       </c>
       <c r="BA85">
-        <v>0.7321645956120693</v>
+        <v>0.653469050374992</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.6429109245870717</v>
-      </c>
       <c r="AT86">
-        <v>0.5851599376891335</v>
+        <v>0.6179033439171985</v>
       </c>
       <c r="AU86">
-        <v>0.5391671780062619</v>
+        <v>0.5777293446192368</v>
       </c>
       <c r="AV86">
-        <v>0.5831281049443066</v>
+        <v>0.5830442566409705</v>
       </c>
       <c r="AW86">
-        <v>0.531107198758026</v>
+        <v>0.5609219017179896</v>
       </c>
       <c r="AX86">
-        <v>0.5438219319055754</v>
+        <v>0.5093297360191721</v>
       </c>
       <c r="AY86">
-        <v>0.5241823680742711</v>
+        <v>0.5479626999706629</v>
       </c>
       <c r="AZ86">
-        <v>0.4725318662996135</v>
+        <v>0.5560926322266252</v>
       </c>
       <c r="BA86">
-        <v>0.4881140622521925</v>
+        <v>0.4645955947223424</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.5856453306811458</v>
-      </c>
       <c r="AU87">
-        <v>0.5371564044732255</v>
+        <v>0.5782096066605079</v>
       </c>
       <c r="AV87">
-        <v>0.5811071086399591</v>
+        <v>0.5832305231215543</v>
       </c>
       <c r="AW87">
-        <v>0.538164685408153</v>
+        <v>0.563345259375758</v>
       </c>
       <c r="AX87">
-        <v>0.536948772693228</v>
+        <v>0.5236421000772473</v>
       </c>
       <c r="AY87">
-        <v>0.491697971889008</v>
+        <v>0.4875556369960538</v>
       </c>
       <c r="AZ87">
-        <v>0.4466086501502914</v>
+        <v>0.4561020311619363</v>
       </c>
       <c r="BA87">
-        <v>0.416227178466438</v>
+        <v>0.4486872193918407</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.5377420632424389</v>
-      </c>
       <c r="AV88">
-        <v>0.5831446990502414</v>
+        <v>0.5836946369398198</v>
       </c>
       <c r="AW88">
-        <v>0.5394170899873624</v>
+        <v>0.562428028706191</v>
       </c>
       <c r="AX88">
-        <v>0.5476871202103092</v>
+        <v>0.5298289394431436</v>
       </c>
       <c r="AY88">
-        <v>0.4666589142023442</v>
+        <v>0.5089159878399865</v>
       </c>
       <c r="AZ88">
-        <v>0.5055021509716097</v>
+        <v>0.5107186235498089</v>
       </c>
       <c r="BA88">
-        <v>0.4843871171042253</v>
+        <v>0.4894682531606569</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.5829130724141878</v>
-      </c>
       <c r="AW89">
-        <v>0.5376561776635695</v>
+        <v>0.562243416294934</v>
       </c>
       <c r="AX89">
-        <v>0.5457554723128879</v>
+        <v>0.5250887155187665</v>
       </c>
       <c r="AY89">
-        <v>0.4797218127965716</v>
+        <v>0.5141476936204041</v>
       </c>
       <c r="AZ89">
-        <v>0.4927831013731888</v>
+        <v>0.5142299582889694</v>
       </c>
       <c r="BA89">
-        <v>0.4779106847895432</v>
+        <v>0.4803919790589644</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.5379557096812668</v>
-      </c>
       <c r="AX90">
-        <v>0.5442594653172439</v>
+        <v>0.5253315097368778</v>
       </c>
       <c r="AY90">
-        <v>0.4805286324840672</v>
+        <v>0.5085152142273243</v>
       </c>
       <c r="AZ90">
-        <v>0.4851356280152934</v>
+        <v>0.5022977547948436</v>
       </c>
       <c r="BA90">
-        <v>0.4667671787447997</v>
+        <v>0.4753028363264717</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.5450891007857038</v>
-      </c>
       <c r="AY91">
-        <v>0.4779264207420414</v>
+        <v>0.509181197443114</v>
       </c>
       <c r="AZ91">
-        <v>0.4899244120145829</v>
+        <v>0.5051820558582083</v>
       </c>
       <c r="BA91">
-        <v>0.4713211703370155</v>
+        <v>0.4785471145016106</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.478524694739065</v>
-      </c>
       <c r="AZ92">
-        <v>0.4899706055161135</v>
+        <v>0.5066922660046868</v>
       </c>
       <c r="BA92">
-        <v>0.4721041443953868</v>
+        <v>0.4785549811542237</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.4890226841441717</v>
-      </c>
       <c r="BA93">
-        <v>0.4709982649575661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.4711768491993803</v>
+        <v>0.4779333146619165</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>1.63165117816655</v>
       </c>
+      <c r="BB2">
+        <v>1.63165117816655</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>1.358419700277324</v>
       </c>
+      <c r="BB3">
+        <v>1.358419700277324</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>-0.1398451755242718</v>
       </c>
+      <c r="BB4">
+        <v>-0.1398451755242718</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>-0.07003068004286206</v>
       </c>
+      <c r="BB5">
+        <v>-0.07003068004286206</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>-7.3868590581191</v>
       </c>
+      <c r="BB6">
+        <v>-7.3868590581191</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>-10.33903131837766</v>
       </c>
+      <c r="BB7">
+        <v>-10.33903131837766</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>-1.060235412222937</v>
       </c>
+      <c r="BB8">
+        <v>-1.060235412222937</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>3.423433284297019</v>
       </c>
+      <c r="BB9">
+        <v>3.423433284297019</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>2.063081011733999</v>
       </c>
+      <c r="BB10">
+        <v>2.063081011733999</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>2.99202665168275</v>
       </c>
+      <c r="BB11">
+        <v>2.99202665168275</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>6.534207423404695</v>
       </c>
+      <c r="BB12">
+        <v>6.534207423404695</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>1.294218807309846</v>
       </c>
+      <c r="BB13">
+        <v>1.294218807309846</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>2.007778863461724</v>
       </c>
+      <c r="BB14">
+        <v>2.007778863461724</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>2.488825190489734</v>
       </c>
+      <c r="BB15">
+        <v>2.488825190489734</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>-0.02236378853282872</v>
       </c>
+      <c r="BB16">
+        <v>-0.02236378853282872</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>1.864148130528193</v>
       </c>
+      <c r="BB17">
+        <v>1.864148130528193</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>0.3074416423962276</v>
       </c>
+      <c r="BB18">
+        <v>0.3074416423962276</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>1.591452302439862</v>
       </c>
+      <c r="BB19">
+        <v>1.591452302439862</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>1.24229439238384</v>
       </c>
+      <c r="BB20">
+        <v>1.24229439238384</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>1.021051258256691</v>
       </c>
+      <c r="BB21">
+        <v>1.021051258256691</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>-2.083516682089652</v>
       </c>
+      <c r="BB22">
+        <v>-2.083516682089652</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>0.8945075486844729</v>
       </c>
+      <c r="BB23">
+        <v>0.8945075486844729</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>1.373553924371535</v>
       </c>
+      <c r="BB24">
+        <v>1.373553924371535</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>0.3276711086097635</v>
       </c>
+      <c r="BB25">
+        <v>0.3276711086097635</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>1.809509533486136</v>
       </c>
+      <c r="BB26">
+        <v>1.809509533486136</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>0.4339813219297071</v>
       </c>
+      <c r="BB27">
+        <v>0.4339813219297071</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>0.4041977135476031</v>
       </c>
+      <c r="BB28">
+        <v>0.4041977135476031</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>1.507492882068462</v>
       </c>
+      <c r="BB29">
+        <v>1.507492882068462</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>1.350099422002103</v>
       </c>
+      <c r="BB30">
+        <v>1.350099422002103</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>1.114800352984872</v>
       </c>
+      <c r="BB31">
+        <v>1.114800352984872</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>1.516137977472326</v>
       </c>
+      <c r="BB32">
+        <v>1.516137977472326</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>-0.02409266101658147</v>
       </c>
+      <c r="BB33">
+        <v>-0.02409266101658147</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>-0.7388860519741201</v>
       </c>
+      <c r="BB34">
+        <v>-0.7388860519741201</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>1.567695497950282</v>
       </c>
+      <c r="BB35">
+        <v>1.567695497950282</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>1.091382109524247</v>
       </c>
+      <c r="BB36">
+        <v>1.091382109524247</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>-0.2679292251141305</v>
       </c>
+      <c r="BB37">
+        <v>-0.2679292251141305</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>1.682996656587392</v>
       </c>
+      <c r="BB38">
+        <v>1.682996656587392</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>1.591260107191601</v>
       </c>
+      <c r="BB39">
+        <v>1.591260107191601</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>1.13706115148689</v>
       </c>
+      <c r="BB40">
+        <v>1.13706115148689</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>1.735453665039003</v>
       </c>
+      <c r="BB41">
+        <v>1.735453665039003</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>2.625533283765208</v>
       </c>
+      <c r="BB42">
+        <v>2.625533283765208</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>-0.3243298885145123</v>
       </c>
+      <c r="BB43">
+        <v>-0.3243298885145123</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>0.6372341859553217</v>
       </c>
+      <c r="BB44">
+        <v>0.6372341859553217</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>-0.5789332341234967</v>
       </c>
+      <c r="BB45">
+        <v>-0.5789332341234967</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>0.1728728569232914</v>
       </c>
+      <c r="BB46">
+        <v>0.1728728569232914</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>1.7</v>
       </c>
+      <c r="BB47">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>-1.4</v>
       </c>
+      <c r="BB48">
+        <v>-1.4</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>1.3</v>
       </c>
+      <c r="BB49">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>-0.6</v>
       </c>
+      <c r="BB50">
+        <v>-0.6</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>-3.292009884772611</v>
       </c>
+      <c r="BB51">
+        <v>-3.292009884772611</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>-20.353166912592</v>
       </c>
+      <c r="BB52">
+        <v>-20.353166912592</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>17.87631681612835</v>
       </c>
+      <c r="BB53">
+        <v>17.87631681612835</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>4.395171409529297</v>
       </c>
+      <c r="BB54">
+        <v>4.395171409529297</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>1.763269038133103</v>
       </c>
+      <c r="BB55">
+        <v>1.763269038133103</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>1.651360288740889</v>
       </c>
+      <c r="BB56">
+        <v>1.651360288740889</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>-0.6023499639201475</v>
       </c>
+      <c r="BB57">
+        <v>-0.6023499639201475</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>3.773751128807561</v>
       </c>
+      <c r="BB58">
+        <v>3.773751128807561</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>0.3486937127494798</v>
       </c>
+      <c r="BB59">
+        <v>0.3486937127494798</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>0.6021692060546258</v>
       </c>
+      <c r="BB60">
+        <v>0.6021692060546258</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>1.505090528591751</v>
       </c>
+      <c r="BB61">
+        <v>1.505090528591751</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>-1.274647749701984</v>
       </c>
+      <c r="BB62">
+        <v>-1.274647749701984</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>0.4647476577308112</v>
       </c>
+      <c r="BB63">
+        <v>0.4647476577308112</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>-0.6885297541760451</v>
       </c>
+      <c r="BB64">
+        <v>-0.6885297541760451</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>-0.9272934801906558</v>
       </c>
+      <c r="BB65">
+        <v>-0.9272934801906558</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>-0.8572418502401149</v>
       </c>
+      <c r="BB66">
+        <v>-0.8572418502401149</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>0.05364604092510206</v>
       </c>
+      <c r="BB67">
+        <v>0.05364604092510206</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>1.830682919206694</v>
       </c>
+      <c r="BB68">
+        <v>1.830682919206694</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>-2.604576060482884</v>
       </c>
+      <c r="BB69">
+        <v>-2.604576060482884</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>-3.124437332092583</v>
       </c>
+      <c r="BB70">
+        <v>-3.124437332092583</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>2.475981966946051</v>
       </c>
+      <c r="BB71">
+        <v>2.411315004676197</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>-0.1262090121580286</v>
       </c>
+      <c r="BB72">
+        <v>0.2886831937783967</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.2762574804029987</v>
       </c>
+      <c r="BB73">
+        <v>-0.7196185376451893</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.653469050374992</v>
       </c>
+      <c r="BB74">
+        <v>0.8547640426299213</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.4645955947223424</v>
       </c>
+      <c r="BB75">
+        <v>0.5836696676700008</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.4486872193918407</v>
       </c>
+      <c r="BB76">
+        <v>0.3581087741383818</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>0.4894682531606569</v>
       </c>
+      <c r="BB77">
+        <v>0.4777118888332296</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>0.4803919790589644</v>
       </c>
+      <c r="BB78">
+        <v>0.486068368610706</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.4753028363264717</v>
       </c>
+      <c r="BB79">
+        <v>0.4603442167010163</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.4785471145016106</v>
       </c>
+      <c r="BB80">
+        <v>0.4663515018921451</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.4785549811542237</v>
       </c>
+      <c r="BB81">
+        <v>0.4695689069109032</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.4779333146619165</v>
+      </c>
+      <c r="BB82">
+        <v>0.4674468967903231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.4674511079923597</v>
       </c>
     </row>
   </sheetData>
